--- a/BackTest/2020-01-11 BackTest BSV.xlsx
+++ b/BackTest/2020-01-11 BackTest BSV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-123.6680816700001</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-123.3880816700001</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>130800</v>
@@ -521,7 +521,7 @@
         <v>-123.8480816700001</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>131000</v>
@@ -562,7 +562,7 @@
         <v>-123.8480816700001</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>130800</v>
@@ -603,7 +603,7 @@
         <v>-39.55318167000006</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>130800</v>
@@ -644,7 +644,7 @@
         <v>-32.22518167000005</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>131200</v>
@@ -685,7 +685,7 @@
         <v>-32.22518167000005</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>131300</v>
@@ -726,7 +726,7 @@
         <v>-32.22518167000005</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>131300</v>
@@ -767,7 +767,7 @@
         <v>-19.22518167000005</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>131300</v>
@@ -808,7 +808,7 @@
         <v>-19.22518167000005</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>131500</v>
@@ -849,7 +849,7 @@
         <v>-19.22518167000005</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>131500</v>
@@ -890,7 +890,7 @@
         <v>29.79301832999995</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>131500</v>
@@ -931,7 +931,7 @@
         <v>29.78301832999994</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>132000</v>
@@ -972,7 +972,7 @@
         <v>29.78301832999994</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>131900</v>
@@ -1013,7 +1013,7 @@
         <v>29.78301832999994</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>131900</v>
@@ -1054,7 +1054,7 @@
         <v>-12.09138167000006</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>131900</v>
@@ -1095,7 +1095,7 @@
         <v>-2.091381670000057</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>131800</v>
@@ -1136,7 +1136,7 @@
         <v>-1.681381670000057</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>131900</v>
@@ -1177,7 +1177,7 @@
         <v>-1.899881670000057</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>132000</v>
@@ -1218,7 +1218,7 @@
         <v>-2.053981670000057</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>131900</v>
@@ -1259,7 +1259,7 @@
         <v>-33.14858167000006</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>131800</v>
@@ -1300,7 +1300,7 @@
         <v>-28.36158167000006</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>131700</v>
@@ -1341,7 +1341,7 @@
         <v>-28.36158167000006</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>131800</v>
@@ -1382,7 +1382,7 @@
         <v>-28.36158167000006</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>131800</v>
@@ -1423,7 +1423,7 @@
         <v>-28.36158167000006</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>131800</v>
@@ -1464,7 +1464,7 @@
         <v>-4.956081670000057</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>131800</v>
@@ -1505,7 +1505,7 @@
         <v>45.97441832999995</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>131900</v>
@@ -1546,7 +1546,7 @@
         <v>45.97441832999995</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>132000</v>
@@ -1587,9 +1587,11 @@
         <v>23.28621832999995</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>132000</v>
+      </c>
       <c r="J30" t="n">
         <v>130800</v>
       </c>
@@ -1626,9 +1628,11 @@
         <v>23.28621832999995</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>131600</v>
+      </c>
       <c r="J31" t="n">
         <v>130800</v>
       </c>
@@ -1665,9 +1669,11 @@
         <v>3.286218329999951</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>131600</v>
+      </c>
       <c r="J32" t="n">
         <v>130800</v>
       </c>
@@ -1704,9 +1710,11 @@
         <v>4.410718329999951</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>131500</v>
+      </c>
       <c r="J33" t="n">
         <v>130800</v>
       </c>
@@ -1743,9 +1751,11 @@
         <v>-17.56238167000005</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>132100</v>
+      </c>
       <c r="J34" t="n">
         <v>130800</v>
       </c>
@@ -1782,9 +1792,11 @@
         <v>-17.56238167000005</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>131700</v>
+      </c>
       <c r="J35" t="n">
         <v>130800</v>
       </c>
@@ -1821,9 +1833,11 @@
         <v>-17.56238167000005</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>131700</v>
+      </c>
       <c r="J36" t="n">
         <v>130800</v>
       </c>
@@ -1860,9 +1874,11 @@
         <v>-175.80908167</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>131700</v>
+      </c>
       <c r="J37" t="n">
         <v>130800</v>
       </c>
@@ -1899,9 +1915,11 @@
         <v>-167.40908167</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>131500</v>
+      </c>
       <c r="J38" t="n">
         <v>130800</v>
       </c>
@@ -1938,9 +1956,11 @@
         <v>-86.56288167000004</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>131700</v>
+      </c>
       <c r="J39" t="n">
         <v>130800</v>
       </c>
@@ -1977,9 +1997,11 @@
         <v>-33.25728167000004</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>131900</v>
+      </c>
       <c r="J40" t="n">
         <v>130800</v>
       </c>
@@ -2016,9 +2038,11 @@
         <v>-33.25728167000004</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>132100</v>
+      </c>
       <c r="J41" t="n">
         <v>130800</v>
       </c>
@@ -2055,9 +2079,11 @@
         <v>-33.74658167000004</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>132100</v>
+      </c>
       <c r="J42" t="n">
         <v>130800</v>
       </c>
@@ -2094,9 +2120,11 @@
         <v>-33.74658167000004</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>132000</v>
+      </c>
       <c r="J43" t="n">
         <v>130800</v>
       </c>
@@ -2133,9 +2161,11 @@
         <v>-32.82778167000004</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>132000</v>
+      </c>
       <c r="J44" t="n">
         <v>130800</v>
       </c>
@@ -2172,9 +2202,11 @@
         <v>-31.07028167000004</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>132100</v>
+      </c>
       <c r="J45" t="n">
         <v>130800</v>
       </c>
@@ -2211,9 +2243,11 @@
         <v>-31.07028167000004</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>132200</v>
+      </c>
       <c r="J46" t="n">
         <v>130800</v>
       </c>
@@ -2250,9 +2284,11 @@
         <v>-31.07028167000004</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>132200</v>
+      </c>
       <c r="J47" t="n">
         <v>130800</v>
       </c>
@@ -2289,9 +2325,11 @@
         <v>-31.07028167000004</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>132200</v>
+      </c>
       <c r="J48" t="n">
         <v>130800</v>
       </c>
@@ -2328,9 +2366,11 @@
         <v>-31.07028167000004</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>132200</v>
+      </c>
       <c r="J49" t="n">
         <v>130800</v>
       </c>
@@ -2367,9 +2407,11 @@
         <v>-31.07028167000004</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>132200</v>
+      </c>
       <c r="J50" t="n">
         <v>130800</v>
       </c>
@@ -2406,9 +2448,11 @@
         <v>-31.07028167000004</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>132200</v>
+      </c>
       <c r="J51" t="n">
         <v>130800</v>
       </c>
@@ -2445,9 +2489,11 @@
         <v>-31.07028167000004</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>132200</v>
+      </c>
       <c r="J52" t="n">
         <v>130800</v>
       </c>
@@ -2484,9 +2530,11 @@
         <v>-24.95698167000004</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>132200</v>
+      </c>
       <c r="J53" t="n">
         <v>130800</v>
       </c>
@@ -2523,9 +2571,11 @@
         <v>-15.83648167000004</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>132500</v>
+      </c>
       <c r="J54" t="n">
         <v>130800</v>
       </c>
@@ -2562,9 +2612,11 @@
         <v>-15.81386586000004</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>132600</v>
+      </c>
       <c r="J55" t="n">
         <v>130800</v>
       </c>
@@ -2601,9 +2653,11 @@
         <v>-15.85149783000004</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>132800</v>
+      </c>
       <c r="J56" t="n">
         <v>130800</v>
       </c>
@@ -2640,9 +2694,11 @@
         <v>-7.751497830000044</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>132600</v>
+      </c>
       <c r="J57" t="n">
         <v>130800</v>
       </c>
@@ -2679,9 +2735,11 @@
         <v>-7.751497830000044</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>132800</v>
+      </c>
       <c r="J58" t="n">
         <v>130800</v>
       </c>
@@ -2718,9 +2776,11 @@
         <v>-7.751497830000044</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>132800</v>
+      </c>
       <c r="J59" t="n">
         <v>130800</v>
       </c>
@@ -2757,9 +2817,11 @@
         <v>16.39720216999996</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>132800</v>
+      </c>
       <c r="J60" t="n">
         <v>130800</v>
       </c>
@@ -2796,9 +2858,11 @@
         <v>16.39720216999996</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>133000</v>
+      </c>
       <c r="J61" t="n">
         <v>130800</v>
       </c>
@@ -2835,9 +2899,11 @@
         <v>16.39720216999996</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>133000</v>
+      </c>
       <c r="J62" t="n">
         <v>130800</v>
       </c>
@@ -2874,9 +2940,11 @@
         <v>16.18000216999996</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>133000</v>
+      </c>
       <c r="J63" t="n">
         <v>130800</v>
       </c>
@@ -2913,9 +2981,11 @@
         <v>16.47000216999996</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>132900</v>
+      </c>
       <c r="J64" t="n">
         <v>130800</v>
       </c>
@@ -2952,9 +3022,11 @@
         <v>54.57000216999996</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>133300</v>
+      </c>
       <c r="J65" t="n">
         <v>130800</v>
       </c>
@@ -2991,9 +3063,11 @@
         <v>54.83000216999996</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>133500</v>
+      </c>
       <c r="J66" t="n">
         <v>130800</v>
       </c>
@@ -3030,9 +3104,11 @@
         <v>67.77570216999996</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>133700</v>
+      </c>
       <c r="J67" t="n">
         <v>130800</v>
       </c>
@@ -3966,9 +4042,11 @@
         <v>-148.0948973800001</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>133700</v>
+      </c>
       <c r="J91" t="n">
         <v>130800</v>
       </c>
@@ -4044,9 +4122,11 @@
         <v>-99.51739738000009</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>133700</v>
+      </c>
       <c r="J93" t="n">
         <v>130800</v>
       </c>
@@ -4083,9 +4163,11 @@
         <v>-99.4932375600001</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>133800</v>
+      </c>
       <c r="J94" t="n">
         <v>130800</v>
       </c>
@@ -4122,9 +4204,11 @@
         <v>-99.4932375600001</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>133900</v>
+      </c>
       <c r="J95" t="n">
         <v>130800</v>
       </c>
@@ -4551,9 +4635,11 @@
         <v>-215.5444375600001</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>133000</v>
+      </c>
       <c r="J106" t="n">
         <v>130800</v>
       </c>
@@ -4590,9 +4676,11 @@
         <v>-177.2834375600001</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>132900</v>
+      </c>
       <c r="J107" t="n">
         <v>130800</v>
       </c>
@@ -4629,9 +4717,11 @@
         <v>-175.6834375600001</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>133500</v>
+      </c>
       <c r="J108" t="n">
         <v>130800</v>
       </c>
@@ -4668,9 +4758,11 @@
         <v>-185.7318375600001</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>133700</v>
+      </c>
       <c r="J109" t="n">
         <v>130800</v>
       </c>
@@ -4707,9 +4799,11 @@
         <v>-230.3037375600001</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>132800</v>
+      </c>
       <c r="J110" t="n">
         <v>130800</v>
       </c>
@@ -4746,9 +4840,11 @@
         <v>-230.3037375600001</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>132700</v>
+      </c>
       <c r="J111" t="n">
         <v>130800</v>
       </c>
@@ -4785,9 +4881,11 @@
         <v>-230.3037375600001</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>132700</v>
+      </c>
       <c r="J112" t="n">
         <v>130800</v>
       </c>
@@ -4824,9 +4922,11 @@
         <v>-234.0745375600002</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>132700</v>
+      </c>
       <c r="J113" t="n">
         <v>130800</v>
       </c>
@@ -4863,9 +4963,11 @@
         <v>-221.4075375600002</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>132400</v>
+      </c>
       <c r="J114" t="n">
         <v>130800</v>
       </c>
@@ -4902,9 +5004,11 @@
         <v>-247.0488375600002</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>133400</v>
+      </c>
       <c r="J115" t="n">
         <v>130800</v>
       </c>
@@ -4941,9 +5045,11 @@
         <v>-246.6788375600001</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>133000</v>
+      </c>
       <c r="J116" t="n">
         <v>130800</v>
       </c>
@@ -4980,9 +5086,11 @@
         <v>-266.3894375600001</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>133400</v>
+      </c>
       <c r="J117" t="n">
         <v>130800</v>
       </c>
@@ -5019,9 +5127,11 @@
         <v>-266.3894375600001</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>132800</v>
+      </c>
       <c r="J118" t="n">
         <v>130800</v>
       </c>
@@ -5058,9 +5168,11 @@
         <v>-263.9294375600002</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>132800</v>
+      </c>
       <c r="J119" t="n">
         <v>130800</v>
       </c>
@@ -5097,9 +5209,11 @@
         <v>-263.3201375600001</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>133000</v>
+      </c>
       <c r="J120" t="n">
         <v>130800</v>
       </c>
@@ -5136,9 +5250,11 @@
         <v>-263.3201375600001</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>133400</v>
+      </c>
       <c r="J121" t="n">
         <v>130800</v>
       </c>
@@ -5175,9 +5291,11 @@
         <v>-263.3201375600001</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>133400</v>
+      </c>
       <c r="J122" t="n">
         <v>130800</v>
       </c>
@@ -5214,9 +5332,11 @@
         <v>-263.3201375600001</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>133400</v>
+      </c>
       <c r="J123" t="n">
         <v>130800</v>
       </c>
@@ -5253,9 +5373,11 @@
         <v>-252.1301375600002</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>133400</v>
+      </c>
       <c r="J124" t="n">
         <v>130800</v>
       </c>
@@ -5370,9 +5492,11 @@
         <v>-330.6541375600002</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>133100</v>
+      </c>
       <c r="J127" t="n">
         <v>130800</v>
       </c>
@@ -5409,9 +5533,11 @@
         <v>-330.3941375600002</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>132800</v>
+      </c>
       <c r="J128" t="n">
         <v>130800</v>
       </c>
@@ -5448,9 +5574,11 @@
         <v>-350.3941375600002</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>133300</v>
+      </c>
       <c r="J129" t="n">
         <v>130800</v>
       </c>
@@ -5487,9 +5615,11 @@
         <v>-275.4948375600002</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>133100</v>
+      </c>
       <c r="J130" t="n">
         <v>130800</v>
       </c>
@@ -5526,9 +5656,11 @@
         <v>-310.2773375600002</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>133200</v>
+      </c>
       <c r="J131" t="n">
         <v>130800</v>
       </c>
@@ -5565,9 +5697,11 @@
         <v>-287.7118375600002</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>133000</v>
+      </c>
       <c r="J132" t="n">
         <v>130800</v>
       </c>
@@ -5682,9 +5816,11 @@
         <v>-319.2915375600002</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>132800</v>
+      </c>
       <c r="J135" t="n">
         <v>130800</v>
       </c>
@@ -5721,9 +5857,11 @@
         <v>-319.2915375600002</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>132300</v>
+      </c>
       <c r="J136" t="n">
         <v>130800</v>
       </c>
@@ -5760,9 +5898,11 @@
         <v>-319.2915375600002</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>132300</v>
+      </c>
       <c r="J137" t="n">
         <v>130800</v>
       </c>
@@ -5799,9 +5939,11 @@
         <v>-319.2915375600002</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>132300</v>
+      </c>
       <c r="J138" t="n">
         <v>130800</v>
       </c>
@@ -5838,9 +5980,11 @@
         <v>-348.5550375600002</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>132300</v>
+      </c>
       <c r="J139" t="n">
         <v>130800</v>
       </c>
@@ -5877,9 +6021,11 @@
         <v>-348.1024375600002</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>132200</v>
+      </c>
       <c r="J140" t="n">
         <v>130800</v>
       </c>
@@ -5916,9 +6062,11 @@
         <v>-348.1024375600002</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>132300</v>
+      </c>
       <c r="J141" t="n">
         <v>130800</v>
       </c>
@@ -5955,9 +6103,11 @@
         <v>-348.1024375600002</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>132300</v>
+      </c>
       <c r="J142" t="n">
         <v>130800</v>
       </c>
@@ -5994,9 +6144,11 @@
         <v>-348.1024375600002</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>132300</v>
+      </c>
       <c r="J143" t="n">
         <v>130800</v>
       </c>
@@ -6033,9 +6185,11 @@
         <v>-347.7522375600002</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>132300</v>
+      </c>
       <c r="J144" t="n">
         <v>130800</v>
       </c>
@@ -6072,9 +6226,11 @@
         <v>-347.7522375600002</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>132400</v>
+      </c>
       <c r="J145" t="n">
         <v>130800</v>
       </c>
@@ -6111,9 +6267,11 @@
         <v>-347.7522375600002</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>132400</v>
+      </c>
       <c r="J146" t="n">
         <v>130800</v>
       </c>
@@ -6150,9 +6308,11 @@
         <v>-347.7522375600002</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>132400</v>
+      </c>
       <c r="J147" t="n">
         <v>130800</v>
       </c>
@@ -6189,9 +6349,11 @@
         <v>-323.7032375600002</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>132400</v>
+      </c>
       <c r="J148" t="n">
         <v>130800</v>
       </c>
@@ -6228,9 +6390,11 @@
         <v>-323.4432375600002</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>132700</v>
+      </c>
       <c r="J149" t="n">
         <v>130800</v>
       </c>
@@ -6267,9 +6431,11 @@
         <v>-323.4432375600002</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>133500</v>
+      </c>
       <c r="J150" t="n">
         <v>130800</v>
       </c>
@@ -6306,9 +6472,11 @@
         <v>-389.5845375600002</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>133500</v>
+      </c>
       <c r="J151" t="n">
         <v>130800</v>
       </c>
@@ -6345,9 +6513,11 @@
         <v>-367.5745375600002</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>133300</v>
+      </c>
       <c r="J152" t="n">
         <v>130800</v>
       </c>
@@ -6384,9 +6554,11 @@
         <v>-427.3840375600003</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>133700</v>
+      </c>
       <c r="J153" t="n">
         <v>130800</v>
       </c>
@@ -6423,9 +6595,11 @@
         <v>-403.3840375600003</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>133500</v>
+      </c>
       <c r="J154" t="n">
         <v>130800</v>
       </c>
@@ -6462,9 +6636,11 @@
         <v>-403.3840375600003</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>133900</v>
+      </c>
       <c r="J155" t="n">
         <v>130800</v>
       </c>
@@ -6501,9 +6677,11 @@
         <v>-416.3986375600002</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>133900</v>
+      </c>
       <c r="J156" t="n">
         <v>130800</v>
       </c>
@@ -6540,9 +6718,11 @@
         <v>-458.3986375600002</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>133400</v>
+      </c>
       <c r="J157" t="n">
         <v>130800</v>
       </c>
@@ -6579,9 +6759,11 @@
         <v>-442.0847375600002</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>133200</v>
+      </c>
       <c r="J158" t="n">
         <v>130800</v>
       </c>
@@ -6618,9 +6800,11 @@
         <v>-442.0847375600002</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>133400</v>
+      </c>
       <c r="J159" t="n">
         <v>130800</v>
       </c>
@@ -6657,9 +6841,11 @@
         <v>-463.6424375600002</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>133400</v>
+      </c>
       <c r="J160" t="n">
         <v>130800</v>
       </c>
@@ -6696,9 +6882,11 @@
         <v>-469.2685375600003</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>133300</v>
+      </c>
       <c r="J161" t="n">
         <v>130800</v>
       </c>
@@ -6735,9 +6923,11 @@
         <v>-484.3498375600003</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>132900</v>
+      </c>
       <c r="J162" t="n">
         <v>130800</v>
       </c>
@@ -6774,9 +6964,11 @@
         <v>-483.9698375600003</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>132800</v>
+      </c>
       <c r="J163" t="n">
         <v>130800</v>
       </c>
@@ -6813,9 +7005,11 @@
         <v>-491.8772375600003</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>133000</v>
+      </c>
       <c r="J164" t="n">
         <v>130800</v>
       </c>
@@ -6852,9 +7046,11 @@
         <v>-488.4992375600003</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>132700</v>
+      </c>
       <c r="J165" t="n">
         <v>130800</v>
       </c>
@@ -6891,9 +7087,11 @@
         <v>-488.8992375600002</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>133000</v>
+      </c>
       <c r="J166" t="n">
         <v>130800</v>
       </c>
@@ -6930,9 +7128,11 @@
         <v>-487.0992375600002</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>132600</v>
+      </c>
       <c r="J167" t="n">
         <v>130800</v>
       </c>
@@ -6969,9 +7169,11 @@
         <v>-487.0992375600002</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>133000</v>
+      </c>
       <c r="J168" t="n">
         <v>130800</v>
       </c>
@@ -7008,9 +7210,11 @@
         <v>-487.0992375600002</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>133000</v>
+      </c>
       <c r="J169" t="n">
         <v>130800</v>
       </c>
@@ -7047,9 +7251,11 @@
         <v>-451.2694375600003</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>133000</v>
+      </c>
       <c r="J170" t="n">
         <v>130800</v>
       </c>
@@ -7086,9 +7292,11 @@
         <v>-451.2694375600003</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>133500</v>
+      </c>
       <c r="J171" t="n">
         <v>130800</v>
       </c>
@@ -7125,9 +7333,11 @@
         <v>-316.3241375600003</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>133500</v>
+      </c>
       <c r="J172" t="n">
         <v>130800</v>
       </c>
@@ -7164,9 +7374,11 @@
         <v>-251.6441375600003</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>133800</v>
+      </c>
       <c r="J173" t="n">
         <v>130800</v>
       </c>
@@ -7554,9 +7766,11 @@
         <v>-271.7062390600003</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>133600</v>
+      </c>
       <c r="J183" t="n">
         <v>130800</v>
       </c>
@@ -7593,9 +7807,11 @@
         <v>-271.7062390600003</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>133600</v>
+      </c>
       <c r="J184" t="n">
         <v>130800</v>
       </c>
@@ -7632,9 +7848,11 @@
         <v>-232.5237390600003</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>133600</v>
+      </c>
       <c r="J185" t="n">
         <v>130800</v>
       </c>
@@ -7671,9 +7889,11 @@
         <v>-238.9236390600003</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>133700</v>
+      </c>
       <c r="J186" t="n">
         <v>130800</v>
       </c>
@@ -7710,9 +7930,11 @@
         <v>-219.5330390600003</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>133600</v>
+      </c>
       <c r="J187" t="n">
         <v>130800</v>
       </c>
@@ -7749,9 +7971,11 @@
         <v>-222.7467390600003</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>133700</v>
+      </c>
       <c r="J188" t="n">
         <v>130800</v>
       </c>
@@ -7788,9 +8012,11 @@
         <v>-215.1813390600003</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>133600</v>
+      </c>
       <c r="J189" t="n">
         <v>130800</v>
       </c>
@@ -7827,9 +8053,11 @@
         <v>-190.5152390600003</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>133900</v>
+      </c>
       <c r="J190" t="n">
         <v>130800</v>
       </c>
@@ -7866,9 +8094,11 @@
         <v>-190.5152390600003</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>134000</v>
+      </c>
       <c r="J191" t="n">
         <v>130800</v>
       </c>
@@ -7905,9 +8135,11 @@
         <v>-185.8541390600003</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>134000</v>
+      </c>
       <c r="J192" t="n">
         <v>130800</v>
       </c>
@@ -7944,9 +8176,11 @@
         <v>-173.7095390600003</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>134200</v>
+      </c>
       <c r="J193" t="n">
         <v>130800</v>
       </c>
@@ -7983,9 +8217,11 @@
         <v>112.9166609399997</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>134300</v>
+      </c>
       <c r="J194" t="n">
         <v>130800</v>
       </c>
@@ -8646,9 +8882,11 @@
         <v>-104.8937219400003</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>133700</v>
+      </c>
       <c r="J211" t="n">
         <v>130800</v>
       </c>
@@ -14379,9 +14617,11 @@
         <v>386.8144074299996</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>132900</v>
+      </c>
       <c r="J358" t="n">
         <v>130800</v>
       </c>
@@ -14418,9 +14658,11 @@
         <v>369.4784074299996</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>132900</v>
+      </c>
       <c r="J359" t="n">
         <v>130800</v>
       </c>
@@ -14457,9 +14699,11 @@
         <v>176.6626074299996</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>132800</v>
+      </c>
       <c r="J360" t="n">
         <v>130800</v>
       </c>
@@ -14535,9 +14779,11 @@
         <v>195.6626074299996</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>132600</v>
+      </c>
       <c r="J362" t="n">
         <v>130800</v>
       </c>
@@ -14574,9 +14820,11 @@
         <v>195.6626074299996</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>132600</v>
+      </c>
       <c r="J363" t="n">
         <v>130800</v>
       </c>
@@ -14613,9 +14861,11 @@
         <v>170.2115074299996</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>132600</v>
+      </c>
       <c r="J364" t="n">
         <v>130800</v>
       </c>
@@ -14652,9 +14902,11 @@
         <v>140.2417074299996</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>132300</v>
+      </c>
       <c r="J365" t="n">
         <v>130800</v>
       </c>
@@ -14691,9 +14943,11 @@
         <v>131.6757074299996</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>132000</v>
+      </c>
       <c r="J366" t="n">
         <v>130800</v>
       </c>
@@ -14730,9 +14984,11 @@
         <v>136.6757074299996</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>131900</v>
+      </c>
       <c r="J367" t="n">
         <v>130800</v>
       </c>
@@ -14769,9 +15025,11 @@
         <v>132.6153074299996</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I368" t="n">
+        <v>132200</v>
+      </c>
       <c r="J368" t="n">
         <v>130800</v>
       </c>
@@ -14808,9 +15066,11 @@
         <v>134.6727074299996</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>132000</v>
+      </c>
       <c r="J369" t="n">
         <v>130800</v>
       </c>
@@ -14847,9 +15107,11 @@
         <v>135.1477074299996</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I370" t="n">
+        <v>132300</v>
+      </c>
       <c r="J370" t="n">
         <v>130800</v>
       </c>
@@ -14886,9 +15148,11 @@
         <v>193.5685868499996</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I371" t="n">
+        <v>132400</v>
+      </c>
       <c r="J371" t="n">
         <v>130800</v>
       </c>
@@ -14925,9 +15189,11 @@
         <v>193.5685868499996</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>132800</v>
+      </c>
       <c r="J372" t="n">
         <v>130800</v>
       </c>
@@ -14964,9 +15230,11 @@
         <v>193.5685868499996</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>132800</v>
+      </c>
       <c r="J373" t="n">
         <v>130800</v>
       </c>
@@ -15003,9 +15271,11 @@
         <v>193.3103868499996</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>132800</v>
+      </c>
       <c r="J374" t="n">
         <v>130800</v>
       </c>
@@ -15042,9 +15312,11 @@
         <v>193.3103868499996</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>132200</v>
+      </c>
       <c r="J375" t="n">
         <v>130800</v>
       </c>
@@ -15081,9 +15353,11 @@
         <v>193.3103868499996</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>132200</v>
+      </c>
       <c r="J376" t="n">
         <v>130800</v>
       </c>
@@ -15120,9 +15394,11 @@
         <v>206.2913868499996</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>132200</v>
+      </c>
       <c r="J377" t="n">
         <v>130800</v>
       </c>
@@ -15159,9 +15435,11 @@
         <v>193.6780868499996</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>132300</v>
+      </c>
       <c r="J378" t="n">
         <v>130800</v>
       </c>
@@ -15198,9 +15476,11 @@
         <v>203.0883868499996</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>132200</v>
+      </c>
       <c r="J379" t="n">
         <v>130800</v>
       </c>
@@ -15237,9 +15517,11 @@
         <v>179.6464868499996</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>132300</v>
+      </c>
       <c r="J380" t="n">
         <v>130800</v>
       </c>
@@ -15276,9 +15558,11 @@
         <v>180.9423868499996</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>132200</v>
+      </c>
       <c r="J381" t="n">
         <v>130800</v>
       </c>
@@ -15315,9 +15599,11 @@
         <v>66.22018684999962</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>132600</v>
+      </c>
       <c r="J382" t="n">
         <v>130800</v>
       </c>
@@ -15354,9 +15640,11 @@
         <v>-48.50201315000038</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>132100</v>
+      </c>
       <c r="J383" t="n">
         <v>130800</v>
       </c>
@@ -15393,9 +15681,11 @@
         <v>136.6336868499996</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>131900</v>
+      </c>
       <c r="J384" t="n">
         <v>130800</v>
       </c>
@@ -15432,9 +15722,11 @@
         <v>121.2801868499996</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>132500</v>
+      </c>
       <c r="J385" t="n">
         <v>130800</v>
       </c>
@@ -15471,9 +15763,11 @@
         <v>121.7801868499996</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>132200</v>
+      </c>
       <c r="J386" t="n">
         <v>130800</v>
       </c>
@@ -15510,9 +15804,11 @@
         <v>120.6877868499996</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>132500</v>
+      </c>
       <c r="J387" t="n">
         <v>130800</v>
       </c>
@@ -15549,9 +15845,11 @@
         <v>124.8196868499996</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>132400</v>
+      </c>
       <c r="J388" t="n">
         <v>130800</v>
       </c>
@@ -15588,9 +15886,11 @@
         <v>124.8196868499996</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>132700</v>
+      </c>
       <c r="J389" t="n">
         <v>130800</v>
       </c>
@@ -15627,9 +15927,11 @@
         <v>186.1401868499997</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>132700</v>
+      </c>
       <c r="J390" t="n">
         <v>130800</v>
       </c>
@@ -15666,9 +15968,11 @@
         <v>242.4922868499997</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>132800</v>
+      </c>
       <c r="J391" t="n">
         <v>130800</v>
       </c>
@@ -15705,9 +16009,11 @@
         <v>237.9312868499997</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>133300</v>
+      </c>
       <c r="J392" t="n">
         <v>130800</v>
       </c>
@@ -15744,9 +16050,11 @@
         <v>261.1531868499997</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>133100</v>
+      </c>
       <c r="J393" t="n">
         <v>130800</v>
       </c>
@@ -15783,9 +16091,11 @@
         <v>276.8888186799996</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>133300</v>
+      </c>
       <c r="J394" t="n">
         <v>130800</v>
       </c>
@@ -15822,9 +16132,11 @@
         <v>346.7456186799997</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>133500</v>
+      </c>
       <c r="J395" t="n">
         <v>130800</v>
       </c>
@@ -18123,9 +18435,11 @@
         <v>312.7437186799996</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>133400</v>
+      </c>
       <c r="J454" t="n">
         <v>130800</v>
       </c>
@@ -18162,9 +18476,11 @@
         <v>312.7437186799996</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>133400</v>
+      </c>
       <c r="J455" t="n">
         <v>130800</v>
       </c>
@@ -18201,9 +18517,11 @@
         <v>218.1533186799996</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>133400</v>
+      </c>
       <c r="J456" t="n">
         <v>130800</v>
       </c>
@@ -18240,9 +18558,11 @@
         <v>207.9952186799996</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>133200</v>
+      </c>
       <c r="J457" t="n">
         <v>130800</v>
       </c>
@@ -18279,9 +18599,11 @@
         <v>130.6353186799996</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>133100</v>
+      </c>
       <c r="J458" t="n">
         <v>130800</v>
       </c>
@@ -18318,9 +18640,11 @@
         <v>143.7054186799996</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>133000</v>
+      </c>
       <c r="J459" t="n">
         <v>130800</v>
       </c>
@@ -18357,9 +18681,11 @@
         <v>159.7054186799996</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>133100</v>
+      </c>
       <c r="J460" t="n">
         <v>130800</v>
       </c>
@@ -18396,9 +18722,11 @@
         <v>212.0818186799996</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>133200</v>
+      </c>
       <c r="J461" t="n">
         <v>130800</v>
       </c>
@@ -18435,9 +18763,11 @@
         <v>211.7073186799996</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>133300</v>
+      </c>
       <c r="J462" t="n">
         <v>130800</v>
       </c>
@@ -18474,9 +18804,11 @@
         <v>212.1283186799996</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>133200</v>
+      </c>
       <c r="J463" t="n">
         <v>130800</v>
       </c>
@@ -18513,9 +18845,11 @@
         <v>212.1283186799996</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>133400</v>
+      </c>
       <c r="J464" t="n">
         <v>130800</v>
       </c>
@@ -18552,9 +18886,11 @@
         <v>182.1855186799996</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>133400</v>
+      </c>
       <c r="J465" t="n">
         <v>130800</v>
       </c>
@@ -18591,9 +18927,11 @@
         <v>166.1697186799996</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>133300</v>
+      </c>
       <c r="J466" t="n">
         <v>130800</v>
       </c>
@@ -18630,9 +18968,11 @@
         <v>99.75131867999956</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>133200</v>
+      </c>
       <c r="J467" t="n">
         <v>130800</v>
       </c>
@@ -18669,9 +19009,11 @@
         <v>99.75131867999956</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>133100</v>
+      </c>
       <c r="J468" t="n">
         <v>130800</v>
       </c>
@@ -18708,9 +19050,11 @@
         <v>99.75131867999956</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>133100</v>
+      </c>
       <c r="J469" t="n">
         <v>130800</v>
       </c>
@@ -18747,9 +19091,11 @@
         <v>-7.407981320000445</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>133100</v>
+      </c>
       <c r="J470" t="n">
         <v>130800</v>
       </c>
@@ -18786,9 +19132,11 @@
         <v>-89.46558132000044</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>132900</v>
+      </c>
       <c r="J471" t="n">
         <v>130800</v>
       </c>
@@ -18825,9 +19173,11 @@
         <v>-172.5759813200004</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>132600</v>
+      </c>
       <c r="J472" t="n">
         <v>130800</v>
       </c>
@@ -18864,9 +19214,11 @@
         <v>-3.79268132000044</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>132300</v>
+      </c>
       <c r="J473" t="n">
         <v>130800</v>
       </c>
@@ -18903,9 +19255,11 @@
         <v>-4.79268132000044</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>132600</v>
+      </c>
       <c r="J474" t="n">
         <v>130800</v>
       </c>
@@ -18942,9 +19296,11 @@
         <v>22.90781867999956</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I475" t="n">
+        <v>132300</v>
+      </c>
       <c r="J475" t="n">
         <v>130800</v>
       </c>
@@ -18981,9 +19337,11 @@
         <v>34.98721867999956</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>132600</v>
+      </c>
       <c r="J476" t="n">
         <v>130800</v>
       </c>
@@ -19020,9 +19378,11 @@
         <v>34.98721867999956</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>133000</v>
+      </c>
       <c r="J477" t="n">
         <v>130800</v>
       </c>
@@ -19059,9 +19419,11 @@
         <v>35.98721867999956</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>133000</v>
+      </c>
       <c r="J478" t="n">
         <v>130800</v>
       </c>
@@ -19098,9 +19460,11 @@
         <v>35.98721867999956</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>133200</v>
+      </c>
       <c r="J479" t="n">
         <v>130800</v>
       </c>
@@ -19137,9 +19501,11 @@
         <v>35.93721867999956</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>133200</v>
+      </c>
       <c r="J480" t="n">
         <v>130800</v>
       </c>
@@ -19176,9 +19542,11 @@
         <v>36.98131867999956</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I481" t="n">
+        <v>132800</v>
+      </c>
       <c r="J481" t="n">
         <v>130800</v>
       </c>
@@ -19215,9 +19583,11 @@
         <v>37.50411867999956</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
-      </c>
-      <c r="I482" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I482" t="n">
+        <v>132900</v>
+      </c>
       <c r="J482" t="n">
         <v>130800</v>
       </c>
@@ -19254,9 +19624,11 @@
         <v>4.36571867999956</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I483" t="n">
+        <v>133200</v>
+      </c>
       <c r="J483" t="n">
         <v>130800</v>
       </c>
@@ -19293,9 +19665,11 @@
         <v>-10.97258132000044</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>133100</v>
+      </c>
       <c r="J484" t="n">
         <v>130800</v>
       </c>
@@ -19332,9 +19706,11 @@
         <v>-6.57008132000044</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I485" t="n">
+        <v>133000</v>
+      </c>
       <c r="J485" t="n">
         <v>130800</v>
       </c>
@@ -19371,9 +19747,11 @@
         <v>10.92141867999956</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>133100</v>
+      </c>
       <c r="J486" t="n">
         <v>130800</v>
       </c>
@@ -19410,9 +19788,11 @@
         <v>9.921418679999558</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
-      </c>
-      <c r="I487" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I487" t="n">
+        <v>133200</v>
+      </c>
       <c r="J487" t="n">
         <v>130800</v>
       </c>
@@ -19449,9 +19829,11 @@
         <v>16.02671867999956</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>133000</v>
+      </c>
       <c r="J488" t="n">
         <v>130800</v>
       </c>
@@ -19488,9 +19870,11 @@
         <v>150.8398186799996</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>133300</v>
+      </c>
       <c r="J489" t="n">
         <v>130800</v>
       </c>
@@ -19527,9 +19911,11 @@
         <v>157.1173186799996</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>133400</v>
+      </c>
       <c r="J490" t="n">
         <v>130800</v>
       </c>
@@ -20697,9 +21083,11 @@
         <v>136.3713169299995</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
-      </c>
-      <c r="I520" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I520" t="n">
+        <v>133800</v>
+      </c>
       <c r="J520" t="n">
         <v>130800</v>
       </c>
@@ -20736,9 +21124,11 @@
         <v>85.27801692999952</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
-      </c>
-      <c r="I521" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I521" t="n">
+        <v>133500</v>
+      </c>
       <c r="J521" t="n">
         <v>130800</v>
       </c>
@@ -20775,9 +21165,11 @@
         <v>82.61971692999953</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
-      </c>
-      <c r="I522" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I522" t="n">
+        <v>133300</v>
+      </c>
       <c r="J522" t="n">
         <v>130800</v>
       </c>
@@ -20814,9 +21206,11 @@
         <v>156.9312169299995</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
-      </c>
-      <c r="I523" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I523" t="n">
+        <v>133200</v>
+      </c>
       <c r="J523" t="n">
         <v>130800</v>
       </c>
@@ -20853,9 +21247,11 @@
         <v>187.0365169299995</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
-      </c>
-      <c r="I524" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I524" t="n">
+        <v>133300</v>
+      </c>
       <c r="J524" t="n">
         <v>130800</v>
       </c>
@@ -25650,7 +26046,7 @@
         <v>5394.47548978</v>
       </c>
       <c r="H647" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="n">
@@ -25658,15 +26054,13 @@
       </c>
       <c r="K647" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L647" t="n">
-        <v>1.174663608562691</v>
-      </c>
-      <c r="M647" t="n">
-        <v>1.003062787136294</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M647" t="inlineStr"/>
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
@@ -25694,8 +26088,14 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -25727,8 +26127,14 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -25760,8 +26166,14 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -25793,8 +26205,14 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -25823,11 +26241,17 @@
         <v>5259.46740483</v>
       </c>
       <c r="H652" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -25859,8 +26283,14 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -25889,11 +26319,17 @@
         <v>5308.393918490001</v>
       </c>
       <c r="H654" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -25925,8 +26361,14 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -25958,8 +26400,14 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -25991,8 +26439,14 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -26024,8 +26478,14 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -26057,8 +26517,14 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -26090,8 +26556,14 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -26123,8 +26595,14 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -26156,8 +26634,14 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -26189,8 +26673,14 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -26222,8 +26712,14 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -26255,8 +26751,14 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -26288,8 +26790,14 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -26321,8 +26829,14 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -26351,15 +26865,23 @@
         <v>6677.238341540003</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L668" t="n">
-        <v>1</v>
-      </c>
-      <c r="M668" t="inlineStr"/>
+        <v>1.185366972477064</v>
+      </c>
+      <c r="M668" t="n">
+        <v>1.003062787136294</v>
+      </c>
     </row>
     <row r="669">
       <c r="A669" s="1" t="n">
@@ -26417,7 +26939,7 @@
         <v>6541.230441540002</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -26450,7 +26972,7 @@
         <v>6541.230441540002</v>
       </c>
       <c r="H671" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -26483,7 +27005,7 @@
         <v>6634.312511420002</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -26516,7 +27038,7 @@
         <v>6596.416311420002</v>
       </c>
       <c r="H673" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -26549,7 +27071,7 @@
         <v>6511.924911420002</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -26714,7 +27236,7 @@
         <v>5574.104511420002</v>
       </c>
       <c r="H679" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -26747,7 +27269,7 @@
         <v>5447.401211420002</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -26780,7 +27302,7 @@
         <v>5447.401211420002</v>
       </c>
       <c r="H681" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -26813,7 +27335,7 @@
         <v>5403.848011420002</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -26846,7 +27368,7 @@
         <v>5317.875411420002</v>
       </c>
       <c r="H683" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -26879,7 +27401,7 @@
         <v>4986.569611420002</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -26912,7 +27434,7 @@
         <v>5361.524911420001</v>
       </c>
       <c r="H685" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -26945,7 +27467,7 @@
         <v>5509.127506080002</v>
       </c>
       <c r="H686" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -26978,7 +27500,7 @@
         <v>5509.127506080002</v>
       </c>
       <c r="H687" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -27011,7 +27533,7 @@
         <v>5370.215106080002</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -27044,7 +27566,7 @@
         <v>5705.920006080001</v>
       </c>
       <c r="H689" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -27077,7 +27599,7 @@
         <v>5757.425009330002</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -27110,7 +27632,7 @@
         <v>5904.522809330001</v>
       </c>
       <c r="H691" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -27143,7 +27665,7 @@
         <v>6071.185419000001</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -27308,7 +27830,7 @@
         <v>6121.688419000001</v>
       </c>
       <c r="H697" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -27539,7 +28061,7 @@
         <v>6535.493036670003</v>
       </c>
       <c r="H704" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -27572,7 +28094,7 @@
         <v>6319.572036670002</v>
       </c>
       <c r="H705" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -27605,7 +28127,7 @@
         <v>6420.205236670003</v>
       </c>
       <c r="H706" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -27638,7 +28160,7 @@
         <v>6460.221536670003</v>
       </c>
       <c r="H707" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -27671,7 +28193,7 @@
         <v>6399.636036670003</v>
       </c>
       <c r="H708" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -27704,7 +28226,7 @@
         <v>6413.968936670003</v>
       </c>
       <c r="H709" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -27737,7 +28259,7 @@
         <v>6413.968936670003</v>
       </c>
       <c r="H710" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -27770,7 +28292,7 @@
         <v>6555.596536670003</v>
       </c>
       <c r="H711" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -27803,7 +28325,7 @@
         <v>6555.596536670003</v>
       </c>
       <c r="H712" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -27836,7 +28358,7 @@
         <v>6341.018436670003</v>
       </c>
       <c r="H713" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -27869,7 +28391,7 @@
         <v>6573.563636670003</v>
       </c>
       <c r="H714" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -27902,7 +28424,7 @@
         <v>6625.147836670003</v>
       </c>
       <c r="H715" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -27935,7 +28457,7 @@
         <v>6508.884336670003</v>
       </c>
       <c r="H716" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -27968,7 +28490,7 @@
         <v>6508.884336670003</v>
       </c>
       <c r="H717" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -28001,7 +28523,7 @@
         <v>6444.947336670003</v>
       </c>
       <c r="H718" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -28034,7 +28556,7 @@
         <v>6433.675436670003</v>
       </c>
       <c r="H719" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -28067,7 +28589,7 @@
         <v>6121.901736670004</v>
       </c>
       <c r="H720" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -28100,7 +28622,7 @@
         <v>6107.793736670003</v>
       </c>
       <c r="H721" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -28133,7 +28655,7 @@
         <v>6023.425236670004</v>
       </c>
       <c r="H722" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -28166,7 +28688,7 @@
         <v>6165.117492620004</v>
       </c>
       <c r="H723" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -28199,7 +28721,7 @@
         <v>6140.153092620004</v>
       </c>
       <c r="H724" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -28232,7 +28754,7 @@
         <v>6549.156592620004</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -28265,7 +28787,7 @@
         <v>6406.549596760004</v>
       </c>
       <c r="H726" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -28298,7 +28820,7 @@
         <v>6402.547828370004</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -28331,7 +28853,7 @@
         <v>6383.848128370004</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -28397,7 +28919,7 @@
         <v>6252.952728370004</v>
       </c>
       <c r="H730" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -28463,7 +28985,7 @@
         <v>6632.288628370004</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -28529,7 +29051,7 @@
         <v>6504.389028370004</v>
       </c>
       <c r="H734" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -28595,7 +29117,7 @@
         <v>6472.245628370004</v>
       </c>
       <c r="H736" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -28628,7 +29150,7 @@
         <v>6745.228128370004</v>
       </c>
       <c r="H737" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -28661,7 +29183,7 @@
         <v>6708.958828370004</v>
       </c>
       <c r="H738" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -28694,7 +29216,7 @@
         <v>6725.536728370004</v>
       </c>
       <c r="H739" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -28760,7 +29282,7 @@
         <v>7084.773850700005</v>
       </c>
       <c r="H741" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -28793,7 +29315,7 @@
         <v>7020.152101990005</v>
       </c>
       <c r="H742" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -28826,7 +29348,7 @@
         <v>6958.367001990005</v>
       </c>
       <c r="H743" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -28859,7 +29381,7 @@
         <v>7010.922601990004</v>
       </c>
       <c r="H744" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -28892,7 +29414,7 @@
         <v>6960.112501990005</v>
       </c>
       <c r="H745" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -28925,7 +29447,7 @@
         <v>6962.744801990005</v>
       </c>
       <c r="H746" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -28958,7 +29480,7 @@
         <v>7005.394904560005</v>
       </c>
       <c r="H747" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -28991,7 +29513,7 @@
         <v>7068.279004560005</v>
       </c>
       <c r="H748" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -29024,7 +29546,7 @@
         <v>7080.510449590005</v>
       </c>
       <c r="H749" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -29057,7 +29579,7 @@
         <v>7064.713849590005</v>
       </c>
       <c r="H750" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -29090,7 +29612,7 @@
         <v>7045.188249590005</v>
       </c>
       <c r="H751" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -29123,7 +29645,7 @@
         <v>7134.720904560006</v>
       </c>
       <c r="H752" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -29156,7 +29678,7 @@
         <v>6977.700604560006</v>
       </c>
       <c r="H753" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -29189,7 +29711,7 @@
         <v>6834.710704560006</v>
       </c>
       <c r="H754" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -29222,7 +29744,7 @@
         <v>6971.316204560006</v>
       </c>
       <c r="H755" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -29255,7 +29777,7 @@
         <v>6971.316204560006</v>
       </c>
       <c r="H756" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -29288,7 +29810,7 @@
         <v>6994.949404680006</v>
       </c>
       <c r="H757" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -29321,7 +29843,7 @@
         <v>6993.913404680005</v>
       </c>
       <c r="H758" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -29354,7 +29876,7 @@
         <v>7019.098703900006</v>
       </c>
       <c r="H759" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -29387,7 +29909,7 @@
         <v>7030.601403900006</v>
       </c>
       <c r="H760" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -29420,7 +29942,7 @@
         <v>7025.715903900005</v>
       </c>
       <c r="H761" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -29453,7 +29975,7 @@
         <v>7001.459682910006</v>
       </c>
       <c r="H762" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -29464,6 +29986,6 @@
       <c r="M762" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest BSV.xlsx
+++ b/BackTest/2020-01-11 BackTest BSV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -4042,11 +4042,9 @@
         <v>-148.0948973800001</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>133700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
         <v>130800</v>
       </c>
@@ -4122,11 +4120,9 @@
         <v>-99.51739738000009</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>133700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
         <v>130800</v>
       </c>
@@ -4163,11 +4159,9 @@
         <v>-99.4932375600001</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>133800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
         <v>130800</v>
       </c>
@@ -4204,11 +4198,9 @@
         <v>-99.4932375600001</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>133900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
         <v>130800</v>
       </c>
@@ -4635,11 +4627,9 @@
         <v>-215.5444375600001</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>133000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
         <v>130800</v>
       </c>
@@ -4676,11 +4666,9 @@
         <v>-177.2834375600001</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>132900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
         <v>130800</v>
       </c>
@@ -4717,11 +4705,9 @@
         <v>-175.6834375600001</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>133500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
         <v>130800</v>
       </c>
@@ -4758,11 +4744,9 @@
         <v>-185.7318375600001</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>133700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
         <v>130800</v>
       </c>
@@ -4799,11 +4783,9 @@
         <v>-230.3037375600001</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>132800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
         <v>130800</v>
       </c>
@@ -4840,11 +4822,9 @@
         <v>-230.3037375600001</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>132700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
         <v>130800</v>
       </c>
@@ -4881,11 +4861,9 @@
         <v>-230.3037375600001</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>132700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
         <v>130800</v>
       </c>
@@ -4922,11 +4900,9 @@
         <v>-234.0745375600002</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>132700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
         <v>130800</v>
       </c>
@@ -4963,11 +4939,9 @@
         <v>-221.4075375600002</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>132400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
         <v>130800</v>
       </c>
@@ -5004,11 +4978,9 @@
         <v>-247.0488375600002</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>133400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
         <v>130800</v>
       </c>
@@ -5045,11 +5017,9 @@
         <v>-246.6788375600001</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>133000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
         <v>130800</v>
       </c>
@@ -5086,11 +5056,9 @@
         <v>-266.3894375600001</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>133400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
         <v>130800</v>
       </c>
@@ -5127,11 +5095,9 @@
         <v>-266.3894375600001</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>132800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
         <v>130800</v>
       </c>
@@ -5168,11 +5134,9 @@
         <v>-263.9294375600002</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>132800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
         <v>130800</v>
       </c>
@@ -5209,11 +5173,9 @@
         <v>-263.3201375600001</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>133000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
         <v>130800</v>
       </c>
@@ -5250,11 +5212,9 @@
         <v>-263.3201375600001</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>133400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
         <v>130800</v>
       </c>
@@ -5291,11 +5251,9 @@
         <v>-263.3201375600001</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>133400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
         <v>130800</v>
       </c>
@@ -5332,11 +5290,9 @@
         <v>-263.3201375600001</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>133400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
         <v>130800</v>
       </c>
@@ -5373,11 +5329,9 @@
         <v>-252.1301375600002</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>133400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
         <v>130800</v>
       </c>
@@ -5492,11 +5446,9 @@
         <v>-330.6541375600002</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>133100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
         <v>130800</v>
       </c>
@@ -5533,11 +5485,9 @@
         <v>-330.3941375600002</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>132800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
         <v>130800</v>
       </c>
@@ -5574,11 +5524,9 @@
         <v>-350.3941375600002</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>133300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
         <v>130800</v>
       </c>
@@ -5615,11 +5563,9 @@
         <v>-275.4948375600002</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>133100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
         <v>130800</v>
       </c>
@@ -5656,11 +5602,9 @@
         <v>-310.2773375600002</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>133200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
         <v>130800</v>
       </c>
@@ -5697,11 +5641,9 @@
         <v>-287.7118375600002</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>133000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
         <v>130800</v>
       </c>
@@ -5738,9 +5680,11 @@
         <v>-314.1331375600002</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>133100</v>
+      </c>
       <c r="J133" t="n">
         <v>130800</v>
       </c>
@@ -5777,9 +5721,11 @@
         <v>-314.1331375600002</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>132800</v>
+      </c>
       <c r="J134" t="n">
         <v>130800</v>
       </c>
@@ -6677,11 +6623,9 @@
         <v>-416.3986375600002</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>133900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
         <v>130800</v>
       </c>
@@ -7415,9 +7359,11 @@
         <v>-251.6441375600003</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>133900</v>
+      </c>
       <c r="J174" t="n">
         <v>130800</v>
       </c>
@@ -7454,9 +7400,11 @@
         <v>-225.6250390600003</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>133900</v>
+      </c>
       <c r="J175" t="n">
         <v>130800</v>
       </c>
@@ -7493,9 +7441,11 @@
         <v>-239.7249390600003</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>134000</v>
+      </c>
       <c r="J176" t="n">
         <v>130800</v>
       </c>
@@ -7532,9 +7482,11 @@
         <v>-279.7249390600003</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>133800</v>
+      </c>
       <c r="J177" t="n">
         <v>130800</v>
       </c>
@@ -7571,9 +7523,11 @@
         <v>-279.7307390600003</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>133500</v>
+      </c>
       <c r="J178" t="n">
         <v>130800</v>
       </c>
@@ -7610,9 +7564,11 @@
         <v>-276.2187390600003</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>133400</v>
+      </c>
       <c r="J179" t="n">
         <v>130800</v>
       </c>
@@ -7649,9 +7605,11 @@
         <v>-276.2187390600003</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>133500</v>
+      </c>
       <c r="J180" t="n">
         <v>130800</v>
       </c>
@@ -7688,9 +7646,11 @@
         <v>-271.6484390600003</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>133500</v>
+      </c>
       <c r="J181" t="n">
         <v>130800</v>
       </c>
@@ -7727,9 +7687,11 @@
         <v>-271.7062390600003</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>133700</v>
+      </c>
       <c r="J182" t="n">
         <v>130800</v>
       </c>
@@ -8217,11 +8179,9 @@
         <v>112.9166609399997</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>134300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
         <v>130800</v>
       </c>
@@ -8882,11 +8842,9 @@
         <v>-104.8937219400003</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>133700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
         <v>130800</v>
       </c>
@@ -8962,9 +8920,11 @@
         <v>-104.2369219400003</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>134100</v>
+      </c>
       <c r="J213" t="n">
         <v>130800</v>
       </c>
@@ -14617,11 +14577,9 @@
         <v>386.8144074299996</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
-      </c>
-      <c r="I358" t="n">
-        <v>132900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
       <c r="J358" t="n">
         <v>130800</v>
       </c>
@@ -14658,11 +14616,9 @@
         <v>369.4784074299996</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
-      </c>
-      <c r="I359" t="n">
-        <v>132900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
       <c r="J359" t="n">
         <v>130800</v>
       </c>
@@ -14699,11 +14655,9 @@
         <v>176.6626074299996</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
-      </c>
-      <c r="I360" t="n">
-        <v>132800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
       <c r="J360" t="n">
         <v>130800</v>
       </c>
@@ -14779,11 +14733,9 @@
         <v>195.6626074299996</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
-      </c>
-      <c r="I362" t="n">
-        <v>132600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
       <c r="J362" t="n">
         <v>130800</v>
       </c>
@@ -14820,11 +14772,9 @@
         <v>195.6626074299996</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
-      </c>
-      <c r="I363" t="n">
-        <v>132600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
       <c r="J363" t="n">
         <v>130800</v>
       </c>
@@ -14861,11 +14811,9 @@
         <v>170.2115074299996</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
-      </c>
-      <c r="I364" t="n">
-        <v>132600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
         <v>130800</v>
       </c>
@@ -14902,11 +14850,9 @@
         <v>140.2417074299996</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
-      </c>
-      <c r="I365" t="n">
-        <v>132300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
         <v>130800</v>
       </c>
@@ -14943,11 +14889,9 @@
         <v>131.6757074299996</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
-      </c>
-      <c r="I366" t="n">
-        <v>132000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
         <v>130800</v>
       </c>
@@ -14984,11 +14928,9 @@
         <v>136.6757074299996</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
-      </c>
-      <c r="I367" t="n">
-        <v>131900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
         <v>130800</v>
       </c>
@@ -15025,11 +14967,9 @@
         <v>132.6153074299996</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
-      </c>
-      <c r="I368" t="n">
-        <v>132200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
         <v>130800</v>
       </c>
@@ -15066,11 +15006,9 @@
         <v>134.6727074299996</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
-      </c>
-      <c r="I369" t="n">
-        <v>132000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
       <c r="J369" t="n">
         <v>130800</v>
       </c>
@@ -15107,11 +15045,9 @@
         <v>135.1477074299996</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
-      </c>
-      <c r="I370" t="n">
-        <v>132300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
       <c r="J370" t="n">
         <v>130800</v>
       </c>
@@ -15148,11 +15084,9 @@
         <v>193.5685868499996</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
-      </c>
-      <c r="I371" t="n">
-        <v>132400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
         <v>130800</v>
       </c>
@@ -15189,11 +15123,9 @@
         <v>193.5685868499996</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
-      </c>
-      <c r="I372" t="n">
-        <v>132800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
         <v>130800</v>
       </c>
@@ -15230,11 +15162,9 @@
         <v>193.5685868499996</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
-      </c>
-      <c r="I373" t="n">
-        <v>132800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
         <v>130800</v>
       </c>
@@ -15271,11 +15201,9 @@
         <v>193.3103868499996</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
-      </c>
-      <c r="I374" t="n">
-        <v>132800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
         <v>130800</v>
       </c>
@@ -15312,11 +15240,9 @@
         <v>193.3103868499996</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
-      </c>
-      <c r="I375" t="n">
-        <v>132200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
         <v>130800</v>
       </c>
@@ -15353,11 +15279,9 @@
         <v>193.3103868499996</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
-      </c>
-      <c r="I376" t="n">
-        <v>132200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
       <c r="J376" t="n">
         <v>130800</v>
       </c>
@@ -15394,11 +15318,9 @@
         <v>206.2913868499996</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
-      </c>
-      <c r="I377" t="n">
-        <v>132200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
         <v>130800</v>
       </c>
@@ -15435,11 +15357,9 @@
         <v>193.6780868499996</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
-      </c>
-      <c r="I378" t="n">
-        <v>132300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
       <c r="J378" t="n">
         <v>130800</v>
       </c>
@@ -15476,11 +15396,9 @@
         <v>203.0883868499996</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
-      </c>
-      <c r="I379" t="n">
-        <v>132200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
       <c r="J379" t="n">
         <v>130800</v>
       </c>
@@ -15517,11 +15435,9 @@
         <v>179.6464868499996</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
-      </c>
-      <c r="I380" t="n">
-        <v>132300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
       <c r="J380" t="n">
         <v>130800</v>
       </c>
@@ -15558,11 +15474,9 @@
         <v>180.9423868499996</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
-      </c>
-      <c r="I381" t="n">
-        <v>132200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
       <c r="J381" t="n">
         <v>130800</v>
       </c>
@@ -15599,11 +15513,9 @@
         <v>66.22018684999962</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
-      </c>
-      <c r="I382" t="n">
-        <v>132600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
       <c r="J382" t="n">
         <v>130800</v>
       </c>
@@ -15640,11 +15552,9 @@
         <v>-48.50201315000038</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
-      </c>
-      <c r="I383" t="n">
-        <v>132100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
       <c r="J383" t="n">
         <v>130800</v>
       </c>
@@ -15681,11 +15591,9 @@
         <v>136.6336868499996</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
-      </c>
-      <c r="I384" t="n">
-        <v>131900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
       <c r="J384" t="n">
         <v>130800</v>
       </c>
@@ -15722,11 +15630,9 @@
         <v>121.2801868499996</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
-      </c>
-      <c r="I385" t="n">
-        <v>132500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
         <v>130800</v>
       </c>
@@ -15763,11 +15669,9 @@
         <v>121.7801868499996</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
-      </c>
-      <c r="I386" t="n">
-        <v>132200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
         <v>130800</v>
       </c>
@@ -15804,11 +15708,9 @@
         <v>120.6877868499996</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
-      </c>
-      <c r="I387" t="n">
-        <v>132500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
         <v>130800</v>
       </c>
@@ -15845,11 +15747,9 @@
         <v>124.8196868499996</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
-      </c>
-      <c r="I388" t="n">
-        <v>132400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
         <v>130800</v>
       </c>
@@ -15886,11 +15786,9 @@
         <v>124.8196868499996</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
-      </c>
-      <c r="I389" t="n">
-        <v>132700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
         <v>130800</v>
       </c>
@@ -15927,11 +15825,9 @@
         <v>186.1401868499997</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
-      </c>
-      <c r="I390" t="n">
-        <v>132700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
         <v>130800</v>
       </c>
@@ -15968,11 +15864,9 @@
         <v>242.4922868499997</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
-      </c>
-      <c r="I391" t="n">
-        <v>132800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
       <c r="J391" t="n">
         <v>130800</v>
       </c>
@@ -16009,11 +15903,9 @@
         <v>237.9312868499997</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
-      </c>
-      <c r="I392" t="n">
-        <v>133300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
         <v>130800</v>
       </c>
@@ -16050,11 +15942,9 @@
         <v>261.1531868499997</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
-      </c>
-      <c r="I393" t="n">
-        <v>133100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
       <c r="J393" t="n">
         <v>130800</v>
       </c>
@@ -16091,11 +15981,9 @@
         <v>276.8888186799996</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
-      </c>
-      <c r="I394" t="n">
-        <v>133300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
       <c r="J394" t="n">
         <v>130800</v>
       </c>
@@ -16132,11 +16020,9 @@
         <v>346.7456186799997</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
-      </c>
-      <c r="I395" t="n">
-        <v>133500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
         <v>130800</v>
       </c>
@@ -18435,11 +18321,9 @@
         <v>312.7437186799996</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
-      </c>
-      <c r="I454" t="n">
-        <v>133400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
       <c r="J454" t="n">
         <v>130800</v>
       </c>
@@ -18476,11 +18360,9 @@
         <v>312.7437186799996</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
-      </c>
-      <c r="I455" t="n">
-        <v>133400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
       <c r="J455" t="n">
         <v>130800</v>
       </c>
@@ -18517,11 +18399,9 @@
         <v>218.1533186799996</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
-      </c>
-      <c r="I456" t="n">
-        <v>133400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I456" t="inlineStr"/>
       <c r="J456" t="n">
         <v>130800</v>
       </c>
@@ -18558,11 +18438,9 @@
         <v>207.9952186799996</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
-      </c>
-      <c r="I457" t="n">
-        <v>133200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I457" t="inlineStr"/>
       <c r="J457" t="n">
         <v>130800</v>
       </c>
@@ -18599,11 +18477,9 @@
         <v>130.6353186799996</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
-      </c>
-      <c r="I458" t="n">
-        <v>133100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I458" t="inlineStr"/>
       <c r="J458" t="n">
         <v>130800</v>
       </c>
@@ -18640,11 +18516,9 @@
         <v>143.7054186799996</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
-      </c>
-      <c r="I459" t="n">
-        <v>133000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I459" t="inlineStr"/>
       <c r="J459" t="n">
         <v>130800</v>
       </c>
@@ -18681,11 +18555,9 @@
         <v>159.7054186799996</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
-      </c>
-      <c r="I460" t="n">
-        <v>133100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I460" t="inlineStr"/>
       <c r="J460" t="n">
         <v>130800</v>
       </c>
@@ -18722,11 +18594,9 @@
         <v>212.0818186799996</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
-      </c>
-      <c r="I461" t="n">
-        <v>133200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I461" t="inlineStr"/>
       <c r="J461" t="n">
         <v>130800</v>
       </c>
@@ -18763,11 +18633,9 @@
         <v>211.7073186799996</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
-      </c>
-      <c r="I462" t="n">
-        <v>133300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I462" t="inlineStr"/>
       <c r="J462" t="n">
         <v>130800</v>
       </c>
@@ -18804,11 +18672,9 @@
         <v>212.1283186799996</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
-      </c>
-      <c r="I463" t="n">
-        <v>133200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I463" t="inlineStr"/>
       <c r="J463" t="n">
         <v>130800</v>
       </c>
@@ -18845,11 +18711,9 @@
         <v>212.1283186799996</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
-      </c>
-      <c r="I464" t="n">
-        <v>133400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I464" t="inlineStr"/>
       <c r="J464" t="n">
         <v>130800</v>
       </c>
@@ -18886,11 +18750,9 @@
         <v>182.1855186799996</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
-      </c>
-      <c r="I465" t="n">
-        <v>133400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I465" t="inlineStr"/>
       <c r="J465" t="n">
         <v>130800</v>
       </c>
@@ -18927,11 +18789,9 @@
         <v>166.1697186799996</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
-      </c>
-      <c r="I466" t="n">
-        <v>133300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I466" t="inlineStr"/>
       <c r="J466" t="n">
         <v>130800</v>
       </c>
@@ -18968,11 +18828,9 @@
         <v>99.75131867999956</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
-      </c>
-      <c r="I467" t="n">
-        <v>133200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I467" t="inlineStr"/>
       <c r="J467" t="n">
         <v>130800</v>
       </c>
@@ -19009,11 +18867,9 @@
         <v>99.75131867999956</v>
       </c>
       <c r="H468" t="n">
-        <v>1</v>
-      </c>
-      <c r="I468" t="n">
-        <v>133100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I468" t="inlineStr"/>
       <c r="J468" t="n">
         <v>130800</v>
       </c>
@@ -19050,11 +18906,9 @@
         <v>99.75131867999956</v>
       </c>
       <c r="H469" t="n">
-        <v>1</v>
-      </c>
-      <c r="I469" t="n">
-        <v>133100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I469" t="inlineStr"/>
       <c r="J469" t="n">
         <v>130800</v>
       </c>
@@ -19091,11 +18945,9 @@
         <v>-7.407981320000445</v>
       </c>
       <c r="H470" t="n">
-        <v>1</v>
-      </c>
-      <c r="I470" t="n">
-        <v>133100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I470" t="inlineStr"/>
       <c r="J470" t="n">
         <v>130800</v>
       </c>
@@ -19132,11 +18984,9 @@
         <v>-89.46558132000044</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
-      </c>
-      <c r="I471" t="n">
-        <v>132900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I471" t="inlineStr"/>
       <c r="J471" t="n">
         <v>130800</v>
       </c>
@@ -19173,11 +19023,9 @@
         <v>-172.5759813200004</v>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
-      </c>
-      <c r="I472" t="n">
-        <v>132600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I472" t="inlineStr"/>
       <c r="J472" t="n">
         <v>130800</v>
       </c>
@@ -19419,11 +19267,9 @@
         <v>35.98721867999956</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
-      </c>
-      <c r="I478" t="n">
-        <v>133000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
       <c r="J478" t="n">
         <v>130800</v>
       </c>
@@ -19460,11 +19306,9 @@
         <v>35.98721867999956</v>
       </c>
       <c r="H479" t="n">
-        <v>1</v>
-      </c>
-      <c r="I479" t="n">
-        <v>133200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I479" t="inlineStr"/>
       <c r="J479" t="n">
         <v>130800</v>
       </c>
@@ -19501,11 +19345,9 @@
         <v>35.93721867999956</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
-      </c>
-      <c r="I480" t="n">
-        <v>133200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I480" t="inlineStr"/>
       <c r="J480" t="n">
         <v>130800</v>
       </c>
@@ -19542,11 +19384,9 @@
         <v>36.98131867999956</v>
       </c>
       <c r="H481" t="n">
-        <v>1</v>
-      </c>
-      <c r="I481" t="n">
-        <v>132800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I481" t="inlineStr"/>
       <c r="J481" t="n">
         <v>130800</v>
       </c>
@@ -19583,11 +19423,9 @@
         <v>37.50411867999956</v>
       </c>
       <c r="H482" t="n">
-        <v>1</v>
-      </c>
-      <c r="I482" t="n">
-        <v>132900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I482" t="inlineStr"/>
       <c r="J482" t="n">
         <v>130800</v>
       </c>
@@ -19624,11 +19462,9 @@
         <v>4.36571867999956</v>
       </c>
       <c r="H483" t="n">
-        <v>1</v>
-      </c>
-      <c r="I483" t="n">
-        <v>133200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I483" t="inlineStr"/>
       <c r="J483" t="n">
         <v>130800</v>
       </c>
@@ -19665,11 +19501,9 @@
         <v>-10.97258132000044</v>
       </c>
       <c r="H484" t="n">
-        <v>1</v>
-      </c>
-      <c r="I484" t="n">
-        <v>133100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I484" t="inlineStr"/>
       <c r="J484" t="n">
         <v>130800</v>
       </c>
@@ -19788,11 +19622,9 @@
         <v>9.921418679999558</v>
       </c>
       <c r="H487" t="n">
-        <v>1</v>
-      </c>
-      <c r="I487" t="n">
-        <v>133200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I487" t="inlineStr"/>
       <c r="J487" t="n">
         <v>130800</v>
       </c>
@@ -19911,11 +19743,9 @@
         <v>157.1173186799996</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
-      </c>
-      <c r="I490" t="n">
-        <v>133400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I490" t="inlineStr"/>
       <c r="J490" t="n">
         <v>130800</v>
       </c>
@@ -21083,11 +20913,9 @@
         <v>136.3713169299995</v>
       </c>
       <c r="H520" t="n">
-        <v>1</v>
-      </c>
-      <c r="I520" t="n">
-        <v>133800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I520" t="inlineStr"/>
       <c r="J520" t="n">
         <v>130800</v>
       </c>
@@ -21124,11 +20952,9 @@
         <v>85.27801692999952</v>
       </c>
       <c r="H521" t="n">
-        <v>1</v>
-      </c>
-      <c r="I521" t="n">
-        <v>133500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I521" t="inlineStr"/>
       <c r="J521" t="n">
         <v>130800</v>
       </c>
@@ -21165,11 +20991,9 @@
         <v>82.61971692999953</v>
       </c>
       <c r="H522" t="n">
-        <v>1</v>
-      </c>
-      <c r="I522" t="n">
-        <v>133300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I522" t="inlineStr"/>
       <c r="J522" t="n">
         <v>130800</v>
       </c>
@@ -21206,11 +21030,9 @@
         <v>156.9312169299995</v>
       </c>
       <c r="H523" t="n">
-        <v>1</v>
-      </c>
-      <c r="I523" t="n">
-        <v>133200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I523" t="inlineStr"/>
       <c r="J523" t="n">
         <v>130800</v>
       </c>
@@ -21247,11 +21069,9 @@
         <v>187.0365169299995</v>
       </c>
       <c r="H524" t="n">
-        <v>1</v>
-      </c>
-      <c r="I524" t="n">
-        <v>133300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I524" t="inlineStr"/>
       <c r="J524" t="n">
         <v>130800</v>
       </c>
@@ -23121,7 +22941,7 @@
         <v>2727.47259136</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="n">
@@ -23129,13 +22949,15 @@
       </c>
       <c r="K572" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L572" t="n">
-        <v>1</v>
-      </c>
-      <c r="M572" t="inlineStr"/>
+        <v>1.109678899082569</v>
+      </c>
+      <c r="M572" t="n">
+        <v>1.003062787136294</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
@@ -23160,17 +22982,11 @@
         <v>2727.47259136</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J573" t="inlineStr"/>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -23199,17 +23015,11 @@
         <v>2567.156191359999</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J574" t="inlineStr"/>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -23241,14 +23051,8 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J575" t="inlineStr"/>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -23277,17 +23081,11 @@
         <v>2927.597193209999</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J576" t="inlineStr"/>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -23316,17 +23114,11 @@
         <v>2674.817993209999</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J577" t="inlineStr"/>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -23355,17 +23147,11 @@
         <v>2470.617993209999</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J578" t="inlineStr"/>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -23394,17 +23180,11 @@
         <v>2178.348793209999</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -23436,14 +23216,8 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -23475,14 +23249,8 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -23514,14 +23282,8 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -23553,14 +23315,8 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -23592,14 +23348,8 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -23631,14 +23381,8 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -23670,14 +23414,8 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J586" t="inlineStr"/>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -23709,14 +23447,8 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J587" t="inlineStr"/>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -23748,14 +23480,8 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J588" t="inlineStr"/>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -23787,14 +23513,8 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J589" t="inlineStr"/>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -23826,14 +23546,8 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J590" t="inlineStr"/>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -23865,14 +23579,8 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J591" t="inlineStr"/>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -23901,17 +23609,11 @@
         <v>1668.947676719999</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J592" t="inlineStr"/>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -23940,17 +23642,11 @@
         <v>1682.933776719999</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J593" t="inlineStr"/>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -23979,17 +23675,11 @@
         <v>1661.873002029999</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -24018,17 +23708,11 @@
         <v>1641.837378909999</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J595" t="inlineStr"/>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -24057,17 +23741,11 @@
         <v>1778.575378909999</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J596" t="inlineStr"/>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -24096,17 +23774,11 @@
         <v>1785.926378909999</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J597" t="inlineStr"/>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -24135,17 +23807,11 @@
         <v>1772.305978909999</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J598" t="inlineStr"/>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -24174,17 +23840,11 @@
         <v>1731.565078909999</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J599" t="inlineStr"/>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -24213,17 +23873,11 @@
         <v>1731.565078909999</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J600" t="inlineStr"/>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -24252,17 +23906,11 @@
         <v>1891.285204219999</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J601" t="inlineStr"/>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -24291,17 +23939,11 @@
         <v>1826.130504219999</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J602" t="inlineStr"/>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -24330,17 +23972,11 @@
         <v>2041.334104219999</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -24369,17 +24005,11 @@
         <v>2041.334104219999</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -24411,14 +24041,8 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J605" t="inlineStr"/>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -24450,14 +24074,8 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J606" t="inlineStr"/>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -24489,14 +24107,8 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J607" t="inlineStr"/>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -24528,14 +24140,8 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J608" t="inlineStr"/>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -24567,14 +24173,8 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J609" t="inlineStr"/>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -24606,14 +24206,8 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J610" t="inlineStr"/>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -24645,14 +24239,8 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J611" t="inlineStr"/>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -24681,17 +24269,11 @@
         <v>2529.15957824</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J612" t="inlineStr"/>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -24720,17 +24302,11 @@
         <v>2792.958578239999</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J613" t="inlineStr"/>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -24762,14 +24338,8 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J614" t="inlineStr"/>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -24801,14 +24371,8 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J615" t="inlineStr"/>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -24840,14 +24404,8 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J616" t="inlineStr"/>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -24879,14 +24437,8 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J617" t="inlineStr"/>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -24918,14 +24470,8 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J618" t="inlineStr"/>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -24957,14 +24503,8 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J619" t="inlineStr"/>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -24996,14 +24536,8 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J620" t="inlineStr"/>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -25035,14 +24569,8 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J621" t="inlineStr"/>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -25074,14 +24602,8 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J622" t="inlineStr"/>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -25113,14 +24635,8 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J623" t="inlineStr"/>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -25152,14 +24668,8 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J624" t="inlineStr"/>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -25191,14 +24701,8 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J625" t="inlineStr"/>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -25230,14 +24734,8 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J626" t="inlineStr"/>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -25269,14 +24767,8 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J627" t="inlineStr"/>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -25308,14 +24800,8 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J628" t="inlineStr"/>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -25347,14 +24833,8 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J629" t="inlineStr"/>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -25386,14 +24866,8 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J630" t="inlineStr"/>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -25425,14 +24899,8 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J631" t="inlineStr"/>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -25464,14 +24932,8 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J632" t="inlineStr"/>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -25503,14 +24965,8 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J633" t="inlineStr"/>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -25542,14 +24998,8 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J634" t="inlineStr"/>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -25581,14 +25031,8 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J635" t="inlineStr"/>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -25620,14 +25064,8 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J636" t="inlineStr"/>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -25659,14 +25097,8 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J637" t="inlineStr"/>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -25698,14 +25130,8 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J638" t="inlineStr"/>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -25737,14 +25163,8 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J639" t="inlineStr"/>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -25776,14 +25196,8 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J640" t="inlineStr"/>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -25815,14 +25229,8 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J641" t="inlineStr"/>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -25854,14 +25262,8 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J642" t="inlineStr"/>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -25893,14 +25295,8 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J643" t="inlineStr"/>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -25932,14 +25328,8 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J644" t="inlineStr"/>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -25971,14 +25361,8 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J645" t="inlineStr"/>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -26010,14 +25394,8 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J646" t="inlineStr"/>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -26049,14 +25427,8 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J647" t="inlineStr"/>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -26088,14 +25460,8 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J648" t="inlineStr"/>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -26127,14 +25493,8 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J649" t="inlineStr"/>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -26166,14 +25526,8 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J650" t="inlineStr"/>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -26205,14 +25559,8 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J651" t="inlineStr"/>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -26244,14 +25592,8 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J652" t="inlineStr"/>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -26283,14 +25625,8 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J653" t="inlineStr"/>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -26322,14 +25658,8 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J654" t="inlineStr"/>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -26361,14 +25691,8 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J655" t="inlineStr"/>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -26400,14 +25724,8 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J656" t="inlineStr"/>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -26439,14 +25757,8 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J657" t="inlineStr"/>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -26478,14 +25790,8 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J658" t="inlineStr"/>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -26517,14 +25823,8 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J659" t="inlineStr"/>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -26556,14 +25856,8 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J660" t="inlineStr"/>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -26595,14 +25889,8 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J661" t="inlineStr"/>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -26634,14 +25922,8 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J662" t="inlineStr"/>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -26673,14 +25955,8 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J663" t="inlineStr"/>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -26712,14 +25988,8 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J664" t="inlineStr"/>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -26751,14 +26021,8 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J665" t="inlineStr"/>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -26790,14 +26054,8 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J666" t="inlineStr"/>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -26829,14 +26087,8 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J667" t="inlineStr"/>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -26865,23 +26117,15 @@
         <v>6677.238341540003</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="n">
-        <v>130800</v>
-      </c>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J668" t="inlineStr"/>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
-        <v>1.185366972477064</v>
-      </c>
-      <c r="M668" t="n">
-        <v>1.003062787136294</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M668" t="inlineStr"/>
     </row>
     <row r="669">
       <c r="A669" s="1" t="n">
@@ -26939,7 +26183,7 @@
         <v>6541.230441540002</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -26972,7 +26216,7 @@
         <v>6541.230441540002</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -27005,7 +26249,7 @@
         <v>6634.312511420002</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -27071,7 +26315,7 @@
         <v>6511.924911420002</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -27269,7 +26513,7 @@
         <v>5447.401211420002</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -27302,7 +26546,7 @@
         <v>5447.401211420002</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -27335,7 +26579,7 @@
         <v>5403.848011420002</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -27368,7 +26612,7 @@
         <v>5317.875411420002</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -27401,7 +26645,7 @@
         <v>4986.569611420002</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -27434,7 +26678,7 @@
         <v>5361.524911420001</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -27467,7 +26711,7 @@
         <v>5509.127506080002</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -27500,7 +26744,7 @@
         <v>5509.127506080002</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -27533,7 +26777,7 @@
         <v>5370.215106080002</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -27566,7 +26810,7 @@
         <v>5705.920006080001</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -27599,7 +26843,7 @@
         <v>5757.425009330002</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -27632,7 +26876,7 @@
         <v>5904.522809330001</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -27665,7 +26909,7 @@
         <v>6071.185419000001</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -28094,7 +27338,7 @@
         <v>6319.572036670002</v>
       </c>
       <c r="H705" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -28127,7 +27371,7 @@
         <v>6420.205236670003</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -28193,7 +27437,7 @@
         <v>6399.636036670003</v>
       </c>
       <c r="H708" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -28226,7 +27470,7 @@
         <v>6413.968936670003</v>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -28259,7 +27503,7 @@
         <v>6413.968936670003</v>
       </c>
       <c r="H710" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -28292,7 +27536,7 @@
         <v>6555.596536670003</v>
       </c>
       <c r="H711" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -28325,7 +27569,7 @@
         <v>6555.596536670003</v>
       </c>
       <c r="H712" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -28358,7 +27602,7 @@
         <v>6341.018436670003</v>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -28391,7 +27635,7 @@
         <v>6573.563636670003</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -28424,7 +27668,7 @@
         <v>6625.147836670003</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -28457,7 +27701,7 @@
         <v>6508.884336670003</v>
       </c>
       <c r="H716" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -28490,7 +27734,7 @@
         <v>6508.884336670003</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -28523,7 +27767,7 @@
         <v>6444.947336670003</v>
       </c>
       <c r="H718" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -28556,7 +27800,7 @@
         <v>6433.675436670003</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -28589,7 +27833,7 @@
         <v>6121.901736670004</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -28622,7 +27866,7 @@
         <v>6107.793736670003</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -28655,7 +27899,7 @@
         <v>6023.425236670004</v>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -28688,7 +27932,7 @@
         <v>6165.117492620004</v>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -28721,7 +27965,7 @@
         <v>6140.153092620004</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -28754,7 +27998,7 @@
         <v>6549.156592620004</v>
       </c>
       <c r="H725" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -28787,7 +28031,7 @@
         <v>6406.549596760004</v>
       </c>
       <c r="H726" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -28820,7 +28064,7 @@
         <v>6402.547828370004</v>
       </c>
       <c r="H727" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -28853,7 +28097,7 @@
         <v>6383.848128370004</v>
       </c>
       <c r="H728" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -28985,7 +28229,7 @@
         <v>6632.288628370004</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -29777,7 +29021,7 @@
         <v>6971.316204560006</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -29843,7 +29087,7 @@
         <v>6993.913404680005</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -29909,7 +29153,7 @@
         <v>7030.601403900006</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -29975,7 +29219,7 @@
         <v>7001.459682910006</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -29986,6 +29230,6 @@
       <c r="M762" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest BSV.xlsx
+++ b/BackTest/2020-01-11 BackTest BSV.xlsx
@@ -2120,11 +2120,9 @@
         <v>-33.74658167000004</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>132000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
         <v>130800</v>
       </c>
@@ -2243,11 +2241,9 @@
         <v>-31.07028167000004</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>132200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
         <v>130800</v>
       </c>
@@ -2735,11 +2731,9 @@
         <v>-7.751497830000044</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>132800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
         <v>130800</v>
       </c>
@@ -2776,11 +2770,9 @@
         <v>-7.751497830000044</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>132800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
         <v>130800</v>
       </c>
@@ -2817,11 +2809,9 @@
         <v>16.39720216999996</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>132800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
         <v>130800</v>
       </c>
@@ -2858,11 +2848,9 @@
         <v>16.39720216999996</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>133000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
         <v>130800</v>
       </c>
@@ -2899,11 +2887,9 @@
         <v>16.39720216999996</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>133000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
         <v>130800</v>
       </c>
@@ -2940,11 +2926,9 @@
         <v>16.18000216999996</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>133000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
         <v>130800</v>
       </c>
@@ -2981,11 +2965,9 @@
         <v>16.47000216999996</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>132900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
         <v>130800</v>
       </c>
@@ -3022,11 +3004,9 @@
         <v>54.57000216999996</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>133300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
         <v>130800</v>
       </c>
@@ -3063,11 +3043,9 @@
         <v>54.83000216999996</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>133500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
         <v>130800</v>
       </c>
@@ -3104,11 +3082,9 @@
         <v>67.77570216999996</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>133700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
         <v>130800</v>
       </c>
@@ -4744,9 +4720,11 @@
         <v>-185.7318375600001</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>133700</v>
+      </c>
       <c r="J109" t="n">
         <v>130800</v>
       </c>
@@ -4783,9 +4761,11 @@
         <v>-230.3037375600001</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>132800</v>
+      </c>
       <c r="J110" t="n">
         <v>130800</v>
       </c>
@@ -4822,9 +4802,11 @@
         <v>-230.3037375600001</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>132700</v>
+      </c>
       <c r="J111" t="n">
         <v>130800</v>
       </c>
@@ -4861,9 +4843,11 @@
         <v>-230.3037375600001</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>132700</v>
+      </c>
       <c r="J112" t="n">
         <v>130800</v>
       </c>
@@ -4900,9 +4884,11 @@
         <v>-234.0745375600002</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>132700</v>
+      </c>
       <c r="J113" t="n">
         <v>130800</v>
       </c>
@@ -4939,9 +4925,11 @@
         <v>-221.4075375600002</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>132400</v>
+      </c>
       <c r="J114" t="n">
         <v>130800</v>
       </c>
@@ -4978,9 +4966,11 @@
         <v>-247.0488375600002</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>133400</v>
+      </c>
       <c r="J115" t="n">
         <v>130800</v>
       </c>
@@ -5017,9 +5007,11 @@
         <v>-246.6788375600001</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>133000</v>
+      </c>
       <c r="J116" t="n">
         <v>130800</v>
       </c>
@@ -5056,9 +5048,11 @@
         <v>-266.3894375600001</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>133400</v>
+      </c>
       <c r="J117" t="n">
         <v>130800</v>
       </c>
@@ -5095,9 +5089,11 @@
         <v>-266.3894375600001</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>132800</v>
+      </c>
       <c r="J118" t="n">
         <v>130800</v>
       </c>
@@ -5134,9 +5130,11 @@
         <v>-263.9294375600002</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>132800</v>
+      </c>
       <c r="J119" t="n">
         <v>130800</v>
       </c>
@@ -5173,9 +5171,11 @@
         <v>-263.3201375600001</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>133000</v>
+      </c>
       <c r="J120" t="n">
         <v>130800</v>
       </c>
@@ -5212,9 +5212,11 @@
         <v>-263.3201375600001</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>133400</v>
+      </c>
       <c r="J121" t="n">
         <v>130800</v>
       </c>
@@ -5251,9 +5253,11 @@
         <v>-263.3201375600001</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>133400</v>
+      </c>
       <c r="J122" t="n">
         <v>130800</v>
       </c>
@@ -5290,9 +5294,11 @@
         <v>-263.3201375600001</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>133400</v>
+      </c>
       <c r="J123" t="n">
         <v>130800</v>
       </c>
@@ -5329,9 +5335,11 @@
         <v>-252.1301375600002</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>133400</v>
+      </c>
       <c r="J124" t="n">
         <v>130800</v>
       </c>
@@ -5368,9 +5376,11 @@
         <v>-322.5641375600002</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>133900</v>
+      </c>
       <c r="J125" t="n">
         <v>130800</v>
       </c>
@@ -5446,9 +5456,11 @@
         <v>-330.6541375600002</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>133100</v>
+      </c>
       <c r="J127" t="n">
         <v>130800</v>
       </c>
@@ -5485,9 +5497,11 @@
         <v>-330.3941375600002</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>132800</v>
+      </c>
       <c r="J128" t="n">
         <v>130800</v>
       </c>
@@ -5524,9 +5538,11 @@
         <v>-350.3941375600002</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>133300</v>
+      </c>
       <c r="J129" t="n">
         <v>130800</v>
       </c>
@@ -5563,9 +5579,11 @@
         <v>-275.4948375600002</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>133100</v>
+      </c>
       <c r="J130" t="n">
         <v>130800</v>
       </c>
@@ -5602,9 +5620,11 @@
         <v>-310.2773375600002</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>133200</v>
+      </c>
       <c r="J131" t="n">
         <v>130800</v>
       </c>
@@ -5641,9 +5661,11 @@
         <v>-287.7118375600002</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>133000</v>
+      </c>
       <c r="J132" t="n">
         <v>130800</v>
       </c>
@@ -6662,11 +6684,9 @@
         <v>-458.3986375600002</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>133400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
         <v>130800</v>
       </c>
@@ -6744,11 +6764,9 @@
         <v>-442.0847375600002</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>133400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
         <v>130800</v>
       </c>
@@ -6785,11 +6803,9 @@
         <v>-463.6424375600002</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>133400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
         <v>130800</v>
       </c>
@@ -6826,11 +6842,9 @@
         <v>-469.2685375600003</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>133300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
         <v>130800</v>
       </c>
@@ -7318,11 +7332,9 @@
         <v>-251.6441375600003</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>133800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
         <v>130800</v>
       </c>
@@ -7359,11 +7371,9 @@
         <v>-251.6441375600003</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>133900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
         <v>130800</v>
       </c>
@@ -7400,11 +7410,9 @@
         <v>-225.6250390600003</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>133900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
         <v>130800</v>
       </c>
@@ -7441,11 +7449,9 @@
         <v>-239.7249390600003</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>134000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
         <v>130800</v>
       </c>
@@ -7482,11 +7488,9 @@
         <v>-279.7249390600003</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>133800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
         <v>130800</v>
       </c>
@@ -7523,11 +7527,9 @@
         <v>-279.7307390600003</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>133500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
         <v>130800</v>
       </c>
@@ -7564,11 +7566,9 @@
         <v>-276.2187390600003</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>133400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
         <v>130800</v>
       </c>
@@ -7605,11 +7605,9 @@
         <v>-276.2187390600003</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>133500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
         <v>130800</v>
       </c>
@@ -7646,11 +7644,9 @@
         <v>-271.6484390600003</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>133500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
         <v>130800</v>
       </c>
@@ -7687,11 +7683,9 @@
         <v>-271.7062390600003</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>133700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
         <v>130800</v>
       </c>
@@ -7728,11 +7722,9 @@
         <v>-271.7062390600003</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>133600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
         <v>130800</v>
       </c>
@@ -7769,11 +7761,9 @@
         <v>-271.7062390600003</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>133600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
         <v>130800</v>
       </c>
@@ -7810,11 +7800,9 @@
         <v>-232.5237390600003</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>133600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
         <v>130800</v>
       </c>
@@ -7851,11 +7839,9 @@
         <v>-238.9236390600003</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>133700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
         <v>130800</v>
       </c>
@@ -7892,11 +7878,9 @@
         <v>-219.5330390600003</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>133600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
         <v>130800</v>
       </c>
@@ -7933,11 +7917,9 @@
         <v>-222.7467390600003</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>133700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
         <v>130800</v>
       </c>
@@ -7974,11 +7956,9 @@
         <v>-215.1813390600003</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>133600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
         <v>130800</v>
       </c>
@@ -8015,11 +7995,9 @@
         <v>-190.5152390600003</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>133900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
         <v>130800</v>
       </c>
@@ -8056,11 +8034,9 @@
         <v>-190.5152390600003</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>134000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
         <v>130800</v>
       </c>
@@ -8097,11 +8073,9 @@
         <v>-185.8541390600003</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>134000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
         <v>130800</v>
       </c>
@@ -8138,11 +8112,9 @@
         <v>-173.7095390600003</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>134200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
         <v>130800</v>
       </c>
@@ -8920,11 +8892,9 @@
         <v>-104.2369219400003</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>134100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
         <v>130800</v>
       </c>
@@ -15045,9 +15015,11 @@
         <v>135.1477074299996</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I370" t="n">
+        <v>132300</v>
+      </c>
       <c r="J370" t="n">
         <v>130800</v>
       </c>
@@ -15084,9 +15056,11 @@
         <v>193.5685868499996</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I371" t="n">
+        <v>132400</v>
+      </c>
       <c r="J371" t="n">
         <v>130800</v>
       </c>
@@ -15123,9 +15097,11 @@
         <v>193.5685868499996</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>132800</v>
+      </c>
       <c r="J372" t="n">
         <v>130800</v>
       </c>
@@ -15162,9 +15138,11 @@
         <v>193.5685868499996</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>132800</v>
+      </c>
       <c r="J373" t="n">
         <v>130800</v>
       </c>
@@ -15240,9 +15218,11 @@
         <v>193.3103868499996</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>132200</v>
+      </c>
       <c r="J375" t="n">
         <v>130800</v>
       </c>
@@ -15279,9 +15259,11 @@
         <v>193.3103868499996</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>132200</v>
+      </c>
       <c r="J376" t="n">
         <v>130800</v>
       </c>
@@ -15318,9 +15300,11 @@
         <v>206.2913868499996</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>132200</v>
+      </c>
       <c r="J377" t="n">
         <v>130800</v>
       </c>
@@ -15357,9 +15341,11 @@
         <v>193.6780868499996</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>132300</v>
+      </c>
       <c r="J378" t="n">
         <v>130800</v>
       </c>
@@ -15396,9 +15382,11 @@
         <v>203.0883868499996</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>132200</v>
+      </c>
       <c r="J379" t="n">
         <v>130800</v>
       </c>
@@ -15435,9 +15423,11 @@
         <v>179.6464868499996</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>132300</v>
+      </c>
       <c r="J380" t="n">
         <v>130800</v>
       </c>
@@ -15474,9 +15464,11 @@
         <v>180.9423868499996</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>132200</v>
+      </c>
       <c r="J381" t="n">
         <v>130800</v>
       </c>
@@ -15513,9 +15505,11 @@
         <v>66.22018684999962</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>132600</v>
+      </c>
       <c r="J382" t="n">
         <v>130800</v>
       </c>
@@ -15552,9 +15546,11 @@
         <v>-48.50201315000038</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>132100</v>
+      </c>
       <c r="J383" t="n">
         <v>130800</v>
       </c>
@@ -15591,9 +15587,11 @@
         <v>136.6336868499996</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>131900</v>
+      </c>
       <c r="J384" t="n">
         <v>130800</v>
       </c>
@@ -19062,11 +19060,9 @@
         <v>-3.79268132000044</v>
       </c>
       <c r="H473" t="n">
-        <v>1</v>
-      </c>
-      <c r="I473" t="n">
-        <v>132300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I473" t="inlineStr"/>
       <c r="J473" t="n">
         <v>130800</v>
       </c>
@@ -19103,11 +19099,9 @@
         <v>-4.79268132000044</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
-      </c>
-      <c r="I474" t="n">
-        <v>132600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
       <c r="J474" t="n">
         <v>130800</v>
       </c>
@@ -19144,11 +19138,9 @@
         <v>22.90781867999956</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
-      </c>
-      <c r="I475" t="n">
-        <v>132300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
       <c r="J475" t="n">
         <v>130800</v>
       </c>
@@ -19185,11 +19177,9 @@
         <v>34.98721867999956</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
-      </c>
-      <c r="I476" t="n">
-        <v>132600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I476" t="inlineStr"/>
       <c r="J476" t="n">
         <v>130800</v>
       </c>
@@ -19226,11 +19216,9 @@
         <v>34.98721867999956</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
-      </c>
-      <c r="I477" t="n">
-        <v>133000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
       <c r="J477" t="n">
         <v>130800</v>
       </c>
@@ -19540,11 +19528,9 @@
         <v>-6.57008132000044</v>
       </c>
       <c r="H485" t="n">
-        <v>1</v>
-      </c>
-      <c r="I485" t="n">
-        <v>133000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I485" t="inlineStr"/>
       <c r="J485" t="n">
         <v>130800</v>
       </c>
@@ -19581,11 +19567,9 @@
         <v>10.92141867999956</v>
       </c>
       <c r="H486" t="n">
-        <v>1</v>
-      </c>
-      <c r="I486" t="n">
-        <v>133100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I486" t="inlineStr"/>
       <c r="J486" t="n">
         <v>130800</v>
       </c>
@@ -19661,11 +19645,9 @@
         <v>16.02671867999956</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
-      </c>
-      <c r="I488" t="n">
-        <v>133000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I488" t="inlineStr"/>
       <c r="J488" t="n">
         <v>130800</v>
       </c>
@@ -19702,11 +19684,9 @@
         <v>150.8398186799996</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
-      </c>
-      <c r="I489" t="n">
-        <v>133300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I489" t="inlineStr"/>
       <c r="J489" t="n">
         <v>130800</v>
       </c>
@@ -22941,7 +22921,7 @@
         <v>2727.47259136</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="n">
@@ -22949,15 +22929,13 @@
       </c>
       <c r="K572" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L572" t="n">
-        <v>1.109678899082569</v>
-      </c>
-      <c r="M572" t="n">
-        <v>1.003062787136294</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M572" t="inlineStr"/>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
@@ -22982,11 +22960,17 @@
         <v>2727.47259136</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -23015,11 +22999,17 @@
         <v>2567.156191359999</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -23051,8 +23041,14 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -23081,11 +23077,17 @@
         <v>2927.597193209999</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -23114,11 +23116,17 @@
         <v>2674.817993209999</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -23147,11 +23155,17 @@
         <v>2470.617993209999</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -23180,11 +23194,17 @@
         <v>2178.348793209999</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -23216,8 +23236,14 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -23249,8 +23275,14 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -23282,8 +23314,14 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -23315,8 +23353,14 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -23348,8 +23392,14 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -23381,8 +23431,14 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -23414,8 +23470,14 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -23447,8 +23509,14 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -23480,8 +23548,14 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -23513,8 +23587,14 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -23546,8 +23626,14 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -23579,8 +23665,14 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -23609,11 +23701,17 @@
         <v>1668.947676719999</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -23642,11 +23740,17 @@
         <v>1682.933776719999</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -23675,11 +23779,17 @@
         <v>1661.873002029999</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -23708,11 +23818,17 @@
         <v>1641.837378909999</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -23741,11 +23857,17 @@
         <v>1778.575378909999</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -23774,11 +23896,17 @@
         <v>1785.926378909999</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -23807,11 +23935,17 @@
         <v>1772.305978909999</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -23840,11 +23974,17 @@
         <v>1731.565078909999</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -23873,11 +24013,17 @@
         <v>1731.565078909999</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -23906,11 +24052,17 @@
         <v>1891.285204219999</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -23939,11 +24091,17 @@
         <v>1826.130504219999</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -23972,11 +24130,17 @@
         <v>2041.334104219999</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -24005,11 +24169,17 @@
         <v>2041.334104219999</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -24041,8 +24211,14 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -24074,8 +24250,14 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -24107,8 +24289,14 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -24140,8 +24328,14 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -24173,8 +24367,14 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -24206,8 +24406,14 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -24239,8 +24445,14 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -24269,11 +24481,17 @@
         <v>2529.15957824</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -24302,11 +24520,17 @@
         <v>2792.958578239999</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -24338,8 +24562,14 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -24371,8 +24601,14 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -24404,8 +24640,14 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -24437,8 +24679,14 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -24470,8 +24718,14 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -24503,8 +24757,14 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -24536,8 +24796,14 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -24569,8 +24835,14 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -24602,8 +24874,14 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -24635,8 +24913,14 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -24668,8 +24952,14 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -24701,8 +24991,14 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -24734,8 +25030,14 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -24767,8 +25069,14 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -24800,8 +25108,14 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -24833,8 +25147,14 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -24866,8 +25186,14 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -24899,8 +25225,14 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -24932,8 +25264,14 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -24965,8 +25303,14 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -24998,8 +25342,14 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -25031,8 +25381,14 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -25064,8 +25420,14 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -25097,8 +25459,14 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -25130,8 +25498,14 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -25163,8 +25537,14 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -25196,8 +25576,14 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -25229,8 +25615,14 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -25262,8 +25654,14 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -25295,8 +25693,14 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -25328,8 +25732,14 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -25361,8 +25771,14 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -25394,8 +25810,14 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -25427,8 +25849,14 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -25460,8 +25888,14 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -25493,8 +25927,14 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -25526,8 +25966,14 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -25559,8 +26005,14 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -25592,8 +26044,14 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -25625,8 +26083,14 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -25658,8 +26122,14 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -25691,8 +26161,14 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -25724,8 +26200,14 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -25754,15 +26236,23 @@
         <v>6552.700055300002</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>130800</v>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L657" t="n">
-        <v>1</v>
-      </c>
-      <c r="M657" t="inlineStr"/>
+        <v>1.195305810397554</v>
+      </c>
+      <c r="M657" t="n">
+        <v>1.003062787136294</v>
+      </c>
     </row>
     <row r="658">
       <c r="A658" s="1" t="n">
@@ -25787,7 +26277,7 @@
         <v>6552.700055300002</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -25820,7 +26310,7 @@
         <v>6829.565344200002</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -25853,7 +26343,7 @@
         <v>6702.329444200002</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -25886,7 +26376,7 @@
         <v>6834.129744200002</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -25919,7 +26409,7 @@
         <v>7232.244244200002</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -25952,7 +26442,7 @@
         <v>6778.394641540002</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -26018,7 +26508,7 @@
         <v>6884.666541540003</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -26051,7 +26541,7 @@
         <v>7039.348741540003</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -26084,7 +26574,7 @@
         <v>7035.343241540003</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -26117,7 +26607,7 @@
         <v>6677.238341540003</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -26150,7 +26640,7 @@
         <v>6346.473341540002</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -26183,7 +26673,7 @@
         <v>6541.230441540002</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -26216,7 +26706,7 @@
         <v>6541.230441540002</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -26249,7 +26739,7 @@
         <v>6634.312511420002</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -26282,7 +26772,7 @@
         <v>6596.416311420002</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -26315,7 +26805,7 @@
         <v>6511.924911420002</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -26348,7 +26838,7 @@
         <v>6511.924911420002</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -26381,7 +26871,7 @@
         <v>6161.153111420002</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -26414,7 +26904,7 @@
         <v>6161.153111420002</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -26447,7 +26937,7 @@
         <v>5653.929311420003</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -26480,7 +26970,7 @@
         <v>5574.104511420002</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -26513,7 +27003,7 @@
         <v>5447.401211420002</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -26546,7 +27036,7 @@
         <v>5447.401211420002</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -26579,7 +27069,7 @@
         <v>5403.848011420002</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -26612,7 +27102,7 @@
         <v>5317.875411420002</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -26645,7 +27135,7 @@
         <v>4986.569611420002</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -26678,7 +27168,7 @@
         <v>5361.524911420001</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -26744,7 +27234,7 @@
         <v>5509.127506080002</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -26810,7 +27300,7 @@
         <v>5705.920006080001</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -26876,7 +27366,7 @@
         <v>5904.522809330001</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -26909,7 +27399,7 @@
         <v>6071.185419000001</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -26942,7 +27432,7 @@
         <v>6039.584819000002</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -26975,7 +27465,7 @@
         <v>6137.290419000002</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -27008,7 +27498,7 @@
         <v>6186.526319000001</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -27041,7 +27531,7 @@
         <v>6109.421419000001</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -27074,7 +27564,7 @@
         <v>6121.688419000001</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -27107,7 +27597,7 @@
         <v>6175.613919000001</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -27140,7 +27630,7 @@
         <v>6151.621151260001</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -27173,7 +27663,7 @@
         <v>6159.884751260001</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -27206,7 +27696,7 @@
         <v>6100.755451260002</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -27239,7 +27729,7 @@
         <v>6110.877051260002</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -27272,7 +27762,7 @@
         <v>6588.689436670003</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -27305,7 +27795,7 @@
         <v>6535.493036670003</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -27338,7 +27828,7 @@
         <v>6319.572036670002</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -27371,7 +27861,7 @@
         <v>6420.205236670003</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -27404,7 +27894,7 @@
         <v>6460.221536670003</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -27437,7 +27927,7 @@
         <v>6399.636036670003</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -27470,7 +27960,7 @@
         <v>6413.968936670003</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -27503,7 +27993,7 @@
         <v>6413.968936670003</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -27536,7 +28026,7 @@
         <v>6555.596536670003</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -27569,7 +28059,7 @@
         <v>6555.596536670003</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -27602,7 +28092,7 @@
         <v>6341.018436670003</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -27635,7 +28125,7 @@
         <v>6573.563636670003</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -27668,7 +28158,7 @@
         <v>6625.147836670003</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -27701,7 +28191,7 @@
         <v>6508.884336670003</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -27734,7 +28224,7 @@
         <v>6508.884336670003</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -27767,7 +28257,7 @@
         <v>6444.947336670003</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -27800,7 +28290,7 @@
         <v>6433.675436670003</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -27833,7 +28323,7 @@
         <v>6121.901736670004</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -27866,7 +28356,7 @@
         <v>6107.793736670003</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -27899,7 +28389,7 @@
         <v>6023.425236670004</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -27932,7 +28422,7 @@
         <v>6165.117492620004</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -27965,7 +28455,7 @@
         <v>6140.153092620004</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -27998,7 +28488,7 @@
         <v>6549.156592620004</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -28031,7 +28521,7 @@
         <v>6406.549596760004</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -28064,7 +28554,7 @@
         <v>6402.547828370004</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -28097,7 +28587,7 @@
         <v>6383.848128370004</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -28130,7 +28620,7 @@
         <v>6383.848128370004</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -28196,7 +28686,7 @@
         <v>6252.952728370004</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -28559,7 +29049,7 @@
         <v>7020.152101990005</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -28592,7 +29082,7 @@
         <v>6958.367001990005</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -28625,7 +29115,7 @@
         <v>7010.922601990004</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -28658,7 +29148,7 @@
         <v>6960.112501990005</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -28757,7 +29247,7 @@
         <v>7068.279004560005</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -28790,7 +29280,7 @@
         <v>7080.510449590005</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -28823,7 +29313,7 @@
         <v>7064.713849590005</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -28856,7 +29346,7 @@
         <v>7045.188249590005</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -28922,7 +29412,7 @@
         <v>6977.700604560006</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -28955,7 +29445,7 @@
         <v>6834.710704560006</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -28988,7 +29478,7 @@
         <v>6971.316204560006</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -29021,7 +29511,7 @@
         <v>6971.316204560006</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -29054,7 +29544,7 @@
         <v>6994.949404680006</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -29087,7 +29577,7 @@
         <v>6993.913404680005</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
